--- a/YSteam開発資料まとめ/設計資料/設計書12日までに/products/内部設計書_2_1_ウエルカム画面＿よう.xlsx
+++ b/YSteam開発資料まとめ/設計資料/設計書12日までに/products/内部設計書_2_1_ウエルカム画面＿よう.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\it研修学习期间的成果\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gips\Desktop\YSteamRepository\YSteam開発資料まとめ\設計資料\設計書12日までに\products\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35A11D0E-91D3-401F-B0CF-0BE8A201408E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EE2695F-CADC-4481-8959-DDCE9DDAEC6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="64">
   <si>
     <t>システム名</t>
   </si>
@@ -554,6 +554,10 @@
     <rPh sb="45" eb="46">
       <t>カエ</t>
     </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ヨウ</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -1256,16 +1260,81 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="39" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1286,61 +1355,20 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="38" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1381,44 +1409,20 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="39" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="38" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="TableStyleLight1" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
+    <cellStyle name="標準" xfId="0" builtinId="0"/>
     <cellStyle name="標準 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1766,8 +1770,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AMK62"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="BZ50" sqref="BZ50"/>
+    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="BP6" sqref="BP6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18"/>
@@ -1780,102 +1784,104 @@
   <sheetData>
     <row r="1" spans="1:1025" ht="18" customHeight="1">
       <c r="A1" s="1"/>
-      <c r="B1" s="72" t="s">
+      <c r="B1" s="80" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="72"/>
-      <c r="D1" s="72"/>
-      <c r="E1" s="72"/>
-      <c r="F1" s="72"/>
-      <c r="G1" s="72"/>
-      <c r="H1" s="73" t="s">
+      <c r="C1" s="80"/>
+      <c r="D1" s="80"/>
+      <c r="E1" s="80"/>
+      <c r="F1" s="80"/>
+      <c r="G1" s="80"/>
+      <c r="H1" s="81" t="s">
         <v>18</v>
       </c>
-      <c r="I1" s="73"/>
-      <c r="J1" s="73"/>
-      <c r="K1" s="73"/>
-      <c r="L1" s="73"/>
-      <c r="M1" s="73"/>
-      <c r="N1" s="73"/>
-      <c r="O1" s="73"/>
-      <c r="P1" s="73"/>
-      <c r="Q1" s="73"/>
-      <c r="R1" s="73"/>
-      <c r="S1" s="73"/>
-      <c r="T1" s="73"/>
-      <c r="U1" s="73"/>
-      <c r="V1" s="73"/>
-      <c r="W1" s="74" t="s">
+      <c r="I1" s="81"/>
+      <c r="J1" s="81"/>
+      <c r="K1" s="81"/>
+      <c r="L1" s="81"/>
+      <c r="M1" s="81"/>
+      <c r="N1" s="81"/>
+      <c r="O1" s="81"/>
+      <c r="P1" s="81"/>
+      <c r="Q1" s="81"/>
+      <c r="R1" s="81"/>
+      <c r="S1" s="81"/>
+      <c r="T1" s="81"/>
+      <c r="U1" s="81"/>
+      <c r="V1" s="81"/>
+      <c r="W1" s="82" t="s">
         <v>19</v>
       </c>
-      <c r="X1" s="74"/>
-      <c r="Y1" s="74"/>
-      <c r="Z1" s="74"/>
-      <c r="AA1" s="74"/>
-      <c r="AB1" s="74"/>
-      <c r="AC1" s="74"/>
-      <c r="AD1" s="74"/>
-      <c r="AE1" s="74"/>
-      <c r="AF1" s="74"/>
-      <c r="AG1" s="74"/>
-      <c r="AH1" s="74"/>
-      <c r="AI1" s="74"/>
-      <c r="AJ1" s="74"/>
-      <c r="AK1" s="74"/>
-      <c r="AL1" s="74"/>
-      <c r="AM1" s="74"/>
-      <c r="AN1" s="74"/>
-      <c r="AO1" s="74"/>
-      <c r="AP1" s="74"/>
-      <c r="AQ1" s="74"/>
-      <c r="AR1" s="74"/>
-      <c r="AS1" s="74"/>
-      <c r="AT1" s="74"/>
-      <c r="AU1" s="74"/>
-      <c r="AV1" s="74"/>
-      <c r="AW1" s="74"/>
-      <c r="AX1" s="74"/>
-      <c r="AY1" s="74"/>
-      <c r="AZ1" s="74"/>
-      <c r="BA1" s="74"/>
-      <c r="BB1" s="74"/>
-      <c r="BC1" s="74"/>
-      <c r="BD1" s="74"/>
-      <c r="BE1" s="74"/>
-      <c r="BF1" s="74"/>
-      <c r="BG1" s="74"/>
-      <c r="BH1" s="74"/>
-      <c r="BI1" s="74"/>
-      <c r="BJ1" s="74"/>
-      <c r="BK1" s="74"/>
-      <c r="BL1" s="75" t="s">
+      <c r="X1" s="82"/>
+      <c r="Y1" s="82"/>
+      <c r="Z1" s="82"/>
+      <c r="AA1" s="82"/>
+      <c r="AB1" s="82"/>
+      <c r="AC1" s="82"/>
+      <c r="AD1" s="82"/>
+      <c r="AE1" s="82"/>
+      <c r="AF1" s="82"/>
+      <c r="AG1" s="82"/>
+      <c r="AH1" s="82"/>
+      <c r="AI1" s="82"/>
+      <c r="AJ1" s="82"/>
+      <c r="AK1" s="82"/>
+      <c r="AL1" s="82"/>
+      <c r="AM1" s="82"/>
+      <c r="AN1" s="82"/>
+      <c r="AO1" s="82"/>
+      <c r="AP1" s="82"/>
+      <c r="AQ1" s="82"/>
+      <c r="AR1" s="82"/>
+      <c r="AS1" s="82"/>
+      <c r="AT1" s="82"/>
+      <c r="AU1" s="82"/>
+      <c r="AV1" s="82"/>
+      <c r="AW1" s="82"/>
+      <c r="AX1" s="82"/>
+      <c r="AY1" s="82"/>
+      <c r="AZ1" s="82"/>
+      <c r="BA1" s="82"/>
+      <c r="BB1" s="82"/>
+      <c r="BC1" s="82"/>
+      <c r="BD1" s="82"/>
+      <c r="BE1" s="82"/>
+      <c r="BF1" s="82"/>
+      <c r="BG1" s="82"/>
+      <c r="BH1" s="82"/>
+      <c r="BI1" s="82"/>
+      <c r="BJ1" s="82"/>
+      <c r="BK1" s="82"/>
+      <c r="BL1" s="83" t="s">
         <v>1</v>
       </c>
-      <c r="BM1" s="75"/>
-      <c r="BN1" s="75"/>
-      <c r="BO1" s="75"/>
-      <c r="BP1" s="76"/>
-      <c r="BQ1" s="76"/>
-      <c r="BR1" s="76"/>
-      <c r="BS1" s="76"/>
-      <c r="BT1" s="76"/>
-      <c r="BU1" s="76"/>
-      <c r="BV1" s="76"/>
-      <c r="BW1" s="76"/>
-      <c r="BX1" s="79" t="s">
+      <c r="BM1" s="83"/>
+      <c r="BN1" s="83"/>
+      <c r="BO1" s="83"/>
+      <c r="BP1" s="84" t="s">
+        <v>63</v>
+      </c>
+      <c r="BQ1" s="84"/>
+      <c r="BR1" s="84"/>
+      <c r="BS1" s="84"/>
+      <c r="BT1" s="84"/>
+      <c r="BU1" s="84"/>
+      <c r="BV1" s="84"/>
+      <c r="BW1" s="84"/>
+      <c r="BX1" s="67" t="s">
         <v>2</v>
       </c>
-      <c r="BY1" s="79"/>
-      <c r="BZ1" s="79"/>
-      <c r="CA1" s="79"/>
-      <c r="CB1" s="64"/>
-      <c r="CC1" s="64"/>
-      <c r="CD1" s="64"/>
-      <c r="CE1" s="64"/>
-      <c r="CF1" s="64"/>
-      <c r="CG1" s="64"/>
-      <c r="CH1" s="64"/>
-      <c r="CI1" s="64"/>
+      <c r="BY1" s="67"/>
+      <c r="BZ1" s="67"/>
+      <c r="CA1" s="67"/>
+      <c r="CB1" s="72"/>
+      <c r="CC1" s="72"/>
+      <c r="CD1" s="72"/>
+      <c r="CE1" s="72"/>
+      <c r="CF1" s="72"/>
+      <c r="CG1" s="72"/>
+      <c r="CH1" s="72"/>
+      <c r="CI1" s="72"/>
       <c r="CJ1" s="1"/>
       <c r="CK1" s="1"/>
       <c r="CL1" s="1"/>
@@ -2817,102 +2823,104 @@
     </row>
     <row r="2" spans="1:1025" ht="18" customHeight="1" thickBot="1">
       <c r="A2" s="1"/>
-      <c r="B2" s="65" t="s">
+      <c r="B2" s="73" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="65"/>
-      <c r="D2" s="65"/>
-      <c r="E2" s="65"/>
-      <c r="F2" s="65"/>
-      <c r="G2" s="65"/>
-      <c r="H2" s="66" t="s">
+      <c r="C2" s="73"/>
+      <c r="D2" s="73"/>
+      <c r="E2" s="73"/>
+      <c r="F2" s="73"/>
+      <c r="G2" s="73"/>
+      <c r="H2" s="74" t="s">
         <v>28</v>
       </c>
-      <c r="I2" s="66"/>
-      <c r="J2" s="66"/>
-      <c r="K2" s="66"/>
-      <c r="L2" s="66"/>
-      <c r="M2" s="66"/>
-      <c r="N2" s="66"/>
-      <c r="O2" s="66"/>
-      <c r="P2" s="66"/>
-      <c r="Q2" s="66"/>
-      <c r="R2" s="66"/>
-      <c r="S2" s="66"/>
-      <c r="T2" s="66"/>
-      <c r="U2" s="66"/>
-      <c r="V2" s="66"/>
-      <c r="W2" s="67" t="s">
+      <c r="I2" s="74"/>
+      <c r="J2" s="74"/>
+      <c r="K2" s="74"/>
+      <c r="L2" s="74"/>
+      <c r="M2" s="74"/>
+      <c r="N2" s="74"/>
+      <c r="O2" s="74"/>
+      <c r="P2" s="74"/>
+      <c r="Q2" s="74"/>
+      <c r="R2" s="74"/>
+      <c r="S2" s="74"/>
+      <c r="T2" s="74"/>
+      <c r="U2" s="74"/>
+      <c r="V2" s="74"/>
+      <c r="W2" s="75" t="s">
         <v>27</v>
       </c>
-      <c r="X2" s="67"/>
-      <c r="Y2" s="67"/>
-      <c r="Z2" s="67"/>
-      <c r="AA2" s="67"/>
-      <c r="AB2" s="67"/>
-      <c r="AC2" s="67"/>
-      <c r="AD2" s="67"/>
-      <c r="AE2" s="67"/>
-      <c r="AF2" s="67"/>
-      <c r="AG2" s="67"/>
-      <c r="AH2" s="67"/>
-      <c r="AI2" s="67"/>
-      <c r="AJ2" s="67"/>
-      <c r="AK2" s="67"/>
-      <c r="AL2" s="67"/>
-      <c r="AM2" s="67"/>
-      <c r="AN2" s="67"/>
-      <c r="AO2" s="67"/>
-      <c r="AP2" s="67"/>
-      <c r="AQ2" s="67"/>
-      <c r="AR2" s="67"/>
-      <c r="AS2" s="67"/>
-      <c r="AT2" s="67"/>
-      <c r="AU2" s="67"/>
-      <c r="AV2" s="67"/>
-      <c r="AW2" s="67"/>
-      <c r="AX2" s="67"/>
-      <c r="AY2" s="67"/>
-      <c r="AZ2" s="67"/>
-      <c r="BA2" s="67"/>
-      <c r="BB2" s="67"/>
-      <c r="BC2" s="67"/>
-      <c r="BD2" s="67"/>
-      <c r="BE2" s="67"/>
-      <c r="BF2" s="67"/>
-      <c r="BG2" s="67"/>
-      <c r="BH2" s="67"/>
-      <c r="BI2" s="67"/>
-      <c r="BJ2" s="67"/>
-      <c r="BK2" s="67"/>
-      <c r="BL2" s="68" t="s">
+      <c r="X2" s="75"/>
+      <c r="Y2" s="75"/>
+      <c r="Z2" s="75"/>
+      <c r="AA2" s="75"/>
+      <c r="AB2" s="75"/>
+      <c r="AC2" s="75"/>
+      <c r="AD2" s="75"/>
+      <c r="AE2" s="75"/>
+      <c r="AF2" s="75"/>
+      <c r="AG2" s="75"/>
+      <c r="AH2" s="75"/>
+      <c r="AI2" s="75"/>
+      <c r="AJ2" s="75"/>
+      <c r="AK2" s="75"/>
+      <c r="AL2" s="75"/>
+      <c r="AM2" s="75"/>
+      <c r="AN2" s="75"/>
+      <c r="AO2" s="75"/>
+      <c r="AP2" s="75"/>
+      <c r="AQ2" s="75"/>
+      <c r="AR2" s="75"/>
+      <c r="AS2" s="75"/>
+      <c r="AT2" s="75"/>
+      <c r="AU2" s="75"/>
+      <c r="AV2" s="75"/>
+      <c r="AW2" s="75"/>
+      <c r="AX2" s="75"/>
+      <c r="AY2" s="75"/>
+      <c r="AZ2" s="75"/>
+      <c r="BA2" s="75"/>
+      <c r="BB2" s="75"/>
+      <c r="BC2" s="75"/>
+      <c r="BD2" s="75"/>
+      <c r="BE2" s="75"/>
+      <c r="BF2" s="75"/>
+      <c r="BG2" s="75"/>
+      <c r="BH2" s="75"/>
+      <c r="BI2" s="75"/>
+      <c r="BJ2" s="75"/>
+      <c r="BK2" s="75"/>
+      <c r="BL2" s="76" t="s">
         <v>4</v>
       </c>
-      <c r="BM2" s="68"/>
-      <c r="BN2" s="68"/>
-      <c r="BO2" s="68"/>
-      <c r="BP2" s="69"/>
-      <c r="BQ2" s="69"/>
-      <c r="BR2" s="69"/>
-      <c r="BS2" s="69"/>
-      <c r="BT2" s="69"/>
-      <c r="BU2" s="69"/>
-      <c r="BV2" s="69"/>
-      <c r="BW2" s="69"/>
-      <c r="BX2" s="70" t="s">
+      <c r="BM2" s="76"/>
+      <c r="BN2" s="76"/>
+      <c r="BO2" s="76"/>
+      <c r="BP2" s="77">
+        <v>44512</v>
+      </c>
+      <c r="BQ2" s="77"/>
+      <c r="BR2" s="77"/>
+      <c r="BS2" s="77"/>
+      <c r="BT2" s="77"/>
+      <c r="BU2" s="77"/>
+      <c r="BV2" s="77"/>
+      <c r="BW2" s="77"/>
+      <c r="BX2" s="78" t="s">
         <v>5</v>
       </c>
-      <c r="BY2" s="70"/>
-      <c r="BZ2" s="70"/>
-      <c r="CA2" s="70"/>
-      <c r="CB2" s="71"/>
-      <c r="CC2" s="71"/>
-      <c r="CD2" s="71"/>
-      <c r="CE2" s="71"/>
-      <c r="CF2" s="71"/>
-      <c r="CG2" s="71"/>
-      <c r="CH2" s="71"/>
-      <c r="CI2" s="71"/>
+      <c r="BY2" s="78"/>
+      <c r="BZ2" s="78"/>
+      <c r="CA2" s="78"/>
+      <c r="CB2" s="79"/>
+      <c r="CC2" s="79"/>
+      <c r="CD2" s="79"/>
+      <c r="CE2" s="79"/>
+      <c r="CF2" s="79"/>
+      <c r="CG2" s="79"/>
+      <c r="CH2" s="79"/>
+      <c r="CI2" s="79"/>
       <c r="CJ2" s="1"/>
       <c r="CK2" s="1"/>
       <c r="CL2" s="1"/>
@@ -3942,100 +3950,100 @@
     </row>
     <row r="4" spans="1:1025" ht="18" customHeight="1">
       <c r="A4" s="2"/>
-      <c r="B4" s="35" t="s">
+      <c r="B4" s="62" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="35"/>
-      <c r="D4" s="35"/>
-      <c r="E4" s="77" t="s">
+      <c r="C4" s="62"/>
+      <c r="D4" s="62"/>
+      <c r="E4" s="71" t="s">
         <v>20</v>
       </c>
-      <c r="F4" s="77"/>
-      <c r="G4" s="77"/>
-      <c r="H4" s="77"/>
-      <c r="I4" s="77"/>
-      <c r="J4" s="77"/>
-      <c r="K4" s="77"/>
-      <c r="L4" s="77"/>
-      <c r="M4" s="77"/>
-      <c r="N4" s="77"/>
-      <c r="O4" s="77"/>
-      <c r="P4" s="77"/>
-      <c r="Q4" s="77"/>
-      <c r="R4" s="77"/>
-      <c r="S4" s="77"/>
-      <c r="T4" s="77"/>
-      <c r="U4" s="77"/>
-      <c r="V4" s="77"/>
-      <c r="W4" s="77"/>
-      <c r="X4" s="77"/>
-      <c r="Y4" s="77" t="s">
+      <c r="F4" s="71"/>
+      <c r="G4" s="71"/>
+      <c r="H4" s="71"/>
+      <c r="I4" s="71"/>
+      <c r="J4" s="71"/>
+      <c r="K4" s="71"/>
+      <c r="L4" s="71"/>
+      <c r="M4" s="71"/>
+      <c r="N4" s="71"/>
+      <c r="O4" s="71"/>
+      <c r="P4" s="71"/>
+      <c r="Q4" s="71"/>
+      <c r="R4" s="71"/>
+      <c r="S4" s="71"/>
+      <c r="T4" s="71"/>
+      <c r="U4" s="71"/>
+      <c r="V4" s="71"/>
+      <c r="W4" s="71"/>
+      <c r="X4" s="71"/>
+      <c r="Y4" s="71" t="s">
         <v>21</v>
       </c>
-      <c r="Z4" s="77"/>
-      <c r="AA4" s="77"/>
-      <c r="AB4" s="77"/>
-      <c r="AC4" s="77"/>
-      <c r="AD4" s="77"/>
-      <c r="AE4" s="77"/>
-      <c r="AF4" s="77"/>
-      <c r="AG4" s="77"/>
-      <c r="AH4" s="77"/>
-      <c r="AI4" s="77"/>
-      <c r="AJ4" s="77"/>
-      <c r="AK4" s="77"/>
-      <c r="AL4" s="77"/>
-      <c r="AM4" s="77"/>
-      <c r="AN4" s="77"/>
-      <c r="AO4" s="77"/>
-      <c r="AP4" s="77"/>
-      <c r="AQ4" s="77"/>
-      <c r="AR4" s="77"/>
-      <c r="AS4" s="40" t="s">
+      <c r="Z4" s="71"/>
+      <c r="AA4" s="71"/>
+      <c r="AB4" s="71"/>
+      <c r="AC4" s="71"/>
+      <c r="AD4" s="71"/>
+      <c r="AE4" s="71"/>
+      <c r="AF4" s="71"/>
+      <c r="AG4" s="71"/>
+      <c r="AH4" s="71"/>
+      <c r="AI4" s="71"/>
+      <c r="AJ4" s="71"/>
+      <c r="AK4" s="71"/>
+      <c r="AL4" s="71"/>
+      <c r="AM4" s="71"/>
+      <c r="AN4" s="71"/>
+      <c r="AO4" s="71"/>
+      <c r="AP4" s="71"/>
+      <c r="AQ4" s="71"/>
+      <c r="AR4" s="71"/>
+      <c r="AS4" s="42" t="s">
         <v>22</v>
       </c>
-      <c r="AT4" s="40"/>
-      <c r="AU4" s="40"/>
-      <c r="AV4" s="40"/>
-      <c r="AW4" s="40"/>
-      <c r="AX4" s="40"/>
-      <c r="AY4" s="40"/>
-      <c r="AZ4" s="40"/>
-      <c r="BA4" s="40"/>
-      <c r="BB4" s="40"/>
-      <c r="BC4" s="40"/>
-      <c r="BD4" s="40"/>
-      <c r="BE4" s="40"/>
-      <c r="BF4" s="40"/>
-      <c r="BG4" s="40"/>
-      <c r="BH4" s="40"/>
-      <c r="BI4" s="40"/>
-      <c r="BJ4" s="40"/>
-      <c r="BK4" s="40"/>
-      <c r="BL4" s="40"/>
-      <c r="BM4" s="40"/>
-      <c r="BN4" s="40"/>
-      <c r="BO4" s="40"/>
-      <c r="BP4" s="40"/>
-      <c r="BQ4" s="40"/>
-      <c r="BR4" s="40"/>
-      <c r="BS4" s="40"/>
-      <c r="BT4" s="40"/>
-      <c r="BU4" s="40"/>
-      <c r="BV4" s="40"/>
-      <c r="BW4" s="40"/>
-      <c r="BX4" s="40"/>
-      <c r="BY4" s="40"/>
-      <c r="BZ4" s="40"/>
-      <c r="CA4" s="40"/>
-      <c r="CB4" s="40"/>
-      <c r="CC4" s="40"/>
-      <c r="CD4" s="40"/>
-      <c r="CE4" s="40"/>
-      <c r="CF4" s="40"/>
-      <c r="CG4" s="40"/>
-      <c r="CH4" s="40"/>
-      <c r="CI4" s="40"/>
+      <c r="AT4" s="42"/>
+      <c r="AU4" s="42"/>
+      <c r="AV4" s="42"/>
+      <c r="AW4" s="42"/>
+      <c r="AX4" s="42"/>
+      <c r="AY4" s="42"/>
+      <c r="AZ4" s="42"/>
+      <c r="BA4" s="42"/>
+      <c r="BB4" s="42"/>
+      <c r="BC4" s="42"/>
+      <c r="BD4" s="42"/>
+      <c r="BE4" s="42"/>
+      <c r="BF4" s="42"/>
+      <c r="BG4" s="42"/>
+      <c r="BH4" s="42"/>
+      <c r="BI4" s="42"/>
+      <c r="BJ4" s="42"/>
+      <c r="BK4" s="42"/>
+      <c r="BL4" s="42"/>
+      <c r="BM4" s="42"/>
+      <c r="BN4" s="42"/>
+      <c r="BO4" s="42"/>
+      <c r="BP4" s="42"/>
+      <c r="BQ4" s="42"/>
+      <c r="BR4" s="42"/>
+      <c r="BS4" s="42"/>
+      <c r="BT4" s="42"/>
+      <c r="BU4" s="42"/>
+      <c r="BV4" s="42"/>
+      <c r="BW4" s="42"/>
+      <c r="BX4" s="42"/>
+      <c r="BY4" s="42"/>
+      <c r="BZ4" s="42"/>
+      <c r="CA4" s="42"/>
+      <c r="CB4" s="42"/>
+      <c r="CC4" s="42"/>
+      <c r="CD4" s="42"/>
+      <c r="CE4" s="42"/>
+      <c r="CF4" s="42"/>
+      <c r="CG4" s="42"/>
+      <c r="CH4" s="42"/>
+      <c r="CI4" s="42"/>
       <c r="CJ4" s="2"/>
       <c r="CK4" s="2"/>
       <c r="CL4" s="2"/>
@@ -4977,100 +4985,100 @@
     </row>
     <row r="5" spans="1:1025" ht="18" customHeight="1" thickBot="1">
       <c r="A5" s="2"/>
-      <c r="B5" s="30">
+      <c r="B5" s="59">
         <v>1</v>
       </c>
-      <c r="C5" s="30"/>
-      <c r="D5" s="30"/>
-      <c r="E5" s="78" t="s">
+      <c r="C5" s="59"/>
+      <c r="D5" s="59"/>
+      <c r="E5" s="43" t="s">
         <v>30</v>
       </c>
-      <c r="F5" s="78"/>
-      <c r="G5" s="78"/>
-      <c r="H5" s="78"/>
-      <c r="I5" s="78"/>
-      <c r="J5" s="78"/>
-      <c r="K5" s="78"/>
-      <c r="L5" s="78"/>
-      <c r="M5" s="78"/>
-      <c r="N5" s="78"/>
-      <c r="O5" s="78"/>
-      <c r="P5" s="78"/>
-      <c r="Q5" s="78"/>
-      <c r="R5" s="78"/>
-      <c r="S5" s="78"/>
-      <c r="T5" s="78"/>
-      <c r="U5" s="78"/>
-      <c r="V5" s="78"/>
-      <c r="W5" s="78"/>
-      <c r="X5" s="78"/>
-      <c r="Y5" s="78" t="s">
+      <c r="F5" s="43"/>
+      <c r="G5" s="43"/>
+      <c r="H5" s="43"/>
+      <c r="I5" s="43"/>
+      <c r="J5" s="43"/>
+      <c r="K5" s="43"/>
+      <c r="L5" s="43"/>
+      <c r="M5" s="43"/>
+      <c r="N5" s="43"/>
+      <c r="O5" s="43"/>
+      <c r="P5" s="43"/>
+      <c r="Q5" s="43"/>
+      <c r="R5" s="43"/>
+      <c r="S5" s="43"/>
+      <c r="T5" s="43"/>
+      <c r="U5" s="43"/>
+      <c r="V5" s="43"/>
+      <c r="W5" s="43"/>
+      <c r="X5" s="43"/>
+      <c r="Y5" s="43" t="s">
         <v>34</v>
       </c>
-      <c r="Z5" s="78"/>
-      <c r="AA5" s="78"/>
-      <c r="AB5" s="78"/>
-      <c r="AC5" s="78"/>
-      <c r="AD5" s="78"/>
-      <c r="AE5" s="78"/>
-      <c r="AF5" s="78"/>
-      <c r="AG5" s="78"/>
-      <c r="AH5" s="78"/>
-      <c r="AI5" s="78"/>
-      <c r="AJ5" s="78"/>
-      <c r="AK5" s="78"/>
-      <c r="AL5" s="78"/>
-      <c r="AM5" s="78"/>
-      <c r="AN5" s="78"/>
-      <c r="AO5" s="78"/>
-      <c r="AP5" s="78"/>
-      <c r="AQ5" s="78"/>
-      <c r="AR5" s="78"/>
-      <c r="AS5" s="87" t="s">
+      <c r="Z5" s="43"/>
+      <c r="AA5" s="43"/>
+      <c r="AB5" s="43"/>
+      <c r="AC5" s="43"/>
+      <c r="AD5" s="43"/>
+      <c r="AE5" s="43"/>
+      <c r="AF5" s="43"/>
+      <c r="AG5" s="43"/>
+      <c r="AH5" s="43"/>
+      <c r="AI5" s="43"/>
+      <c r="AJ5" s="43"/>
+      <c r="AK5" s="43"/>
+      <c r="AL5" s="43"/>
+      <c r="AM5" s="43"/>
+      <c r="AN5" s="43"/>
+      <c r="AO5" s="43"/>
+      <c r="AP5" s="43"/>
+      <c r="AQ5" s="43"/>
+      <c r="AR5" s="43"/>
+      <c r="AS5" s="44" t="s">
         <v>30</v>
       </c>
-      <c r="AT5" s="87"/>
-      <c r="AU5" s="87"/>
-      <c r="AV5" s="87"/>
-      <c r="AW5" s="87"/>
-      <c r="AX5" s="87"/>
-      <c r="AY5" s="87"/>
-      <c r="AZ5" s="87"/>
-      <c r="BA5" s="87"/>
-      <c r="BB5" s="87"/>
-      <c r="BC5" s="87"/>
-      <c r="BD5" s="87"/>
-      <c r="BE5" s="87"/>
-      <c r="BF5" s="87"/>
-      <c r="BG5" s="87"/>
-      <c r="BH5" s="87"/>
-      <c r="BI5" s="87"/>
-      <c r="BJ5" s="87"/>
-      <c r="BK5" s="87"/>
-      <c r="BL5" s="87"/>
-      <c r="BM5" s="87"/>
-      <c r="BN5" s="87"/>
-      <c r="BO5" s="87"/>
-      <c r="BP5" s="87"/>
-      <c r="BQ5" s="87"/>
-      <c r="BR5" s="87"/>
-      <c r="BS5" s="87"/>
-      <c r="BT5" s="87"/>
-      <c r="BU5" s="87"/>
-      <c r="BV5" s="87"/>
-      <c r="BW5" s="87"/>
-      <c r="BX5" s="87"/>
-      <c r="BY5" s="87"/>
-      <c r="BZ5" s="87"/>
-      <c r="CA5" s="87"/>
-      <c r="CB5" s="87"/>
-      <c r="CC5" s="87"/>
-      <c r="CD5" s="87"/>
-      <c r="CE5" s="87"/>
-      <c r="CF5" s="87"/>
-      <c r="CG5" s="87"/>
-      <c r="CH5" s="87"/>
-      <c r="CI5" s="87"/>
+      <c r="AT5" s="44"/>
+      <c r="AU5" s="44"/>
+      <c r="AV5" s="44"/>
+      <c r="AW5" s="44"/>
+      <c r="AX5" s="44"/>
+      <c r="AY5" s="44"/>
+      <c r="AZ5" s="44"/>
+      <c r="BA5" s="44"/>
+      <c r="BB5" s="44"/>
+      <c r="BC5" s="44"/>
+      <c r="BD5" s="44"/>
+      <c r="BE5" s="44"/>
+      <c r="BF5" s="44"/>
+      <c r="BG5" s="44"/>
+      <c r="BH5" s="44"/>
+      <c r="BI5" s="44"/>
+      <c r="BJ5" s="44"/>
+      <c r="BK5" s="44"/>
+      <c r="BL5" s="44"/>
+      <c r="BM5" s="44"/>
+      <c r="BN5" s="44"/>
+      <c r="BO5" s="44"/>
+      <c r="BP5" s="44"/>
+      <c r="BQ5" s="44"/>
+      <c r="BR5" s="44"/>
+      <c r="BS5" s="44"/>
+      <c r="BT5" s="44"/>
+      <c r="BU5" s="44"/>
+      <c r="BV5" s="44"/>
+      <c r="BW5" s="44"/>
+      <c r="BX5" s="44"/>
+      <c r="BY5" s="44"/>
+      <c r="BZ5" s="44"/>
+      <c r="CA5" s="44"/>
+      <c r="CB5" s="44"/>
+      <c r="CC5" s="44"/>
+      <c r="CD5" s="44"/>
+      <c r="CE5" s="44"/>
+      <c r="CF5" s="44"/>
+      <c r="CG5" s="44"/>
+      <c r="CH5" s="44"/>
+      <c r="CI5" s="44"/>
       <c r="CJ5" s="2"/>
       <c r="CK5" s="2"/>
       <c r="CL5" s="2"/>
@@ -6099,201 +6107,201 @@
       <c r="CI6" s="5"/>
     </row>
     <row r="7" spans="1:1025" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="B7" s="35" t="s">
+      <c r="B7" s="62" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="35"/>
-      <c r="D7" s="35"/>
-      <c r="E7" s="36" t="s">
+      <c r="C7" s="62"/>
+      <c r="D7" s="62"/>
+      <c r="E7" s="63" t="s">
         <v>9</v>
       </c>
-      <c r="F7" s="36"/>
-      <c r="G7" s="36"/>
-      <c r="H7" s="36"/>
-      <c r="I7" s="36"/>
-      <c r="J7" s="36"/>
-      <c r="K7" s="36"/>
-      <c r="L7" s="36"/>
-      <c r="M7" s="36"/>
-      <c r="N7" s="36"/>
-      <c r="O7" s="36"/>
-      <c r="P7" s="36"/>
-      <c r="Q7" s="36"/>
-      <c r="R7" s="36"/>
-      <c r="S7" s="36"/>
-      <c r="T7" s="36"/>
-      <c r="U7" s="36"/>
-      <c r="V7" s="36"/>
-      <c r="W7" s="36"/>
-      <c r="X7" s="36"/>
-      <c r="Y7" s="37" t="s">
+      <c r="F7" s="63"/>
+      <c r="G7" s="63"/>
+      <c r="H7" s="63"/>
+      <c r="I7" s="63"/>
+      <c r="J7" s="63"/>
+      <c r="K7" s="63"/>
+      <c r="L7" s="63"/>
+      <c r="M7" s="63"/>
+      <c r="N7" s="63"/>
+      <c r="O7" s="63"/>
+      <c r="P7" s="63"/>
+      <c r="Q7" s="63"/>
+      <c r="R7" s="63"/>
+      <c r="S7" s="63"/>
+      <c r="T7" s="63"/>
+      <c r="U7" s="63"/>
+      <c r="V7" s="63"/>
+      <c r="W7" s="63"/>
+      <c r="X7" s="63"/>
+      <c r="Y7" s="64" t="s">
         <v>8</v>
       </c>
-      <c r="Z7" s="38"/>
-      <c r="AA7" s="38"/>
-      <c r="AB7" s="38"/>
-      <c r="AC7" s="38"/>
-      <c r="AD7" s="38"/>
-      <c r="AE7" s="38"/>
-      <c r="AF7" s="38"/>
-      <c r="AG7" s="38"/>
-      <c r="AH7" s="39"/>
-      <c r="AI7" s="37" t="s">
+      <c r="Z7" s="65"/>
+      <c r="AA7" s="65"/>
+      <c r="AB7" s="65"/>
+      <c r="AC7" s="65"/>
+      <c r="AD7" s="65"/>
+      <c r="AE7" s="65"/>
+      <c r="AF7" s="65"/>
+      <c r="AG7" s="65"/>
+      <c r="AH7" s="66"/>
+      <c r="AI7" s="64" t="s">
         <v>11</v>
       </c>
-      <c r="AJ7" s="38"/>
-      <c r="AK7" s="38"/>
-      <c r="AL7" s="38"/>
-      <c r="AM7" s="38"/>
-      <c r="AN7" s="38"/>
-      <c r="AO7" s="38"/>
-      <c r="AP7" s="38"/>
-      <c r="AQ7" s="38"/>
-      <c r="AR7" s="39"/>
-      <c r="AS7" s="40" t="s">
+      <c r="AJ7" s="65"/>
+      <c r="AK7" s="65"/>
+      <c r="AL7" s="65"/>
+      <c r="AM7" s="65"/>
+      <c r="AN7" s="65"/>
+      <c r="AO7" s="65"/>
+      <c r="AP7" s="65"/>
+      <c r="AQ7" s="65"/>
+      <c r="AR7" s="66"/>
+      <c r="AS7" s="42" t="s">
         <v>12</v>
       </c>
-      <c r="AT7" s="40"/>
-      <c r="AU7" s="40"/>
-      <c r="AV7" s="40"/>
-      <c r="AW7" s="40"/>
-      <c r="AX7" s="40"/>
-      <c r="AY7" s="40"/>
-      <c r="AZ7" s="40"/>
-      <c r="BA7" s="40"/>
-      <c r="BB7" s="40"/>
-      <c r="BC7" s="40"/>
-      <c r="BD7" s="40"/>
-      <c r="BE7" s="40"/>
-      <c r="BF7" s="40"/>
-      <c r="BG7" s="40"/>
-      <c r="BH7" s="40"/>
-      <c r="BI7" s="40"/>
-      <c r="BJ7" s="40"/>
-      <c r="BK7" s="40"/>
-      <c r="BL7" s="40"/>
-      <c r="BM7" s="40"/>
-      <c r="BN7" s="40"/>
-      <c r="BO7" s="40"/>
-      <c r="BP7" s="40"/>
-      <c r="BQ7" s="40"/>
-      <c r="BR7" s="40"/>
-      <c r="BS7" s="40"/>
-      <c r="BT7" s="40"/>
-      <c r="BU7" s="40"/>
-      <c r="BV7" s="40"/>
-      <c r="BW7" s="40"/>
-      <c r="BX7" s="40"/>
-      <c r="BY7" s="40"/>
-      <c r="BZ7" s="40"/>
-      <c r="CA7" s="40"/>
-      <c r="CB7" s="40"/>
-      <c r="CC7" s="40"/>
-      <c r="CD7" s="40"/>
-      <c r="CE7" s="40"/>
-      <c r="CF7" s="40"/>
-      <c r="CG7" s="40"/>
-      <c r="CH7" s="40"/>
-      <c r="CI7" s="40"/>
+      <c r="AT7" s="42"/>
+      <c r="AU7" s="42"/>
+      <c r="AV7" s="42"/>
+      <c r="AW7" s="42"/>
+      <c r="AX7" s="42"/>
+      <c r="AY7" s="42"/>
+      <c r="AZ7" s="42"/>
+      <c r="BA7" s="42"/>
+      <c r="BB7" s="42"/>
+      <c r="BC7" s="42"/>
+      <c r="BD7" s="42"/>
+      <c r="BE7" s="42"/>
+      <c r="BF7" s="42"/>
+      <c r="BG7" s="42"/>
+      <c r="BH7" s="42"/>
+      <c r="BI7" s="42"/>
+      <c r="BJ7" s="42"/>
+      <c r="BK7" s="42"/>
+      <c r="BL7" s="42"/>
+      <c r="BM7" s="42"/>
+      <c r="BN7" s="42"/>
+      <c r="BO7" s="42"/>
+      <c r="BP7" s="42"/>
+      <c r="BQ7" s="42"/>
+      <c r="BR7" s="42"/>
+      <c r="BS7" s="42"/>
+      <c r="BT7" s="42"/>
+      <c r="BU7" s="42"/>
+      <c r="BV7" s="42"/>
+      <c r="BW7" s="42"/>
+      <c r="BX7" s="42"/>
+      <c r="BY7" s="42"/>
+      <c r="BZ7" s="42"/>
+      <c r="CA7" s="42"/>
+      <c r="CB7" s="42"/>
+      <c r="CC7" s="42"/>
+      <c r="CD7" s="42"/>
+      <c r="CE7" s="42"/>
+      <c r="CF7" s="42"/>
+      <c r="CG7" s="42"/>
+      <c r="CH7" s="42"/>
+      <c r="CI7" s="42"/>
     </row>
     <row r="8" spans="1:1025" ht="18" customHeight="1" thickBot="1">
       <c r="A8" s="2"/>
-      <c r="B8" s="30">
+      <c r="B8" s="59">
         <v>1</v>
       </c>
-      <c r="C8" s="30"/>
-      <c r="D8" s="30"/>
-      <c r="E8" s="31" t="s">
+      <c r="C8" s="59"/>
+      <c r="D8" s="59"/>
+      <c r="E8" s="68" t="s">
         <v>31</v>
       </c>
-      <c r="F8" s="32"/>
-      <c r="G8" s="32"/>
-      <c r="H8" s="32"/>
-      <c r="I8" s="32"/>
-      <c r="J8" s="32"/>
-      <c r="K8" s="32"/>
-      <c r="L8" s="32"/>
-      <c r="M8" s="32"/>
-      <c r="N8" s="32"/>
-      <c r="O8" s="32"/>
-      <c r="P8" s="32"/>
-      <c r="Q8" s="32"/>
-      <c r="R8" s="32"/>
-      <c r="S8" s="32"/>
-      <c r="T8" s="32"/>
-      <c r="U8" s="32"/>
-      <c r="V8" s="32"/>
-      <c r="W8" s="32"/>
-      <c r="X8" s="33"/>
-      <c r="Y8" s="31" t="s">
+      <c r="F8" s="69"/>
+      <c r="G8" s="69"/>
+      <c r="H8" s="69"/>
+      <c r="I8" s="69"/>
+      <c r="J8" s="69"/>
+      <c r="K8" s="69"/>
+      <c r="L8" s="69"/>
+      <c r="M8" s="69"/>
+      <c r="N8" s="69"/>
+      <c r="O8" s="69"/>
+      <c r="P8" s="69"/>
+      <c r="Q8" s="69"/>
+      <c r="R8" s="69"/>
+      <c r="S8" s="69"/>
+      <c r="T8" s="69"/>
+      <c r="U8" s="69"/>
+      <c r="V8" s="69"/>
+      <c r="W8" s="69"/>
+      <c r="X8" s="70"/>
+      <c r="Y8" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="Z8" s="32"/>
-      <c r="AA8" s="32"/>
-      <c r="AB8" s="32"/>
-      <c r="AC8" s="32"/>
-      <c r="AD8" s="32"/>
-      <c r="AE8" s="32"/>
-      <c r="AF8" s="32"/>
-      <c r="AG8" s="32"/>
-      <c r="AH8" s="33"/>
-      <c r="AI8" s="31" t="s">
+      <c r="Z8" s="69"/>
+      <c r="AA8" s="69"/>
+      <c r="AB8" s="69"/>
+      <c r="AC8" s="69"/>
+      <c r="AD8" s="69"/>
+      <c r="AE8" s="69"/>
+      <c r="AF8" s="69"/>
+      <c r="AG8" s="69"/>
+      <c r="AH8" s="70"/>
+      <c r="AI8" s="68" t="s">
         <v>14</v>
       </c>
-      <c r="AJ8" s="32"/>
-      <c r="AK8" s="32"/>
-      <c r="AL8" s="32"/>
-      <c r="AM8" s="32"/>
-      <c r="AN8" s="32"/>
-      <c r="AO8" s="32"/>
-      <c r="AP8" s="32"/>
-      <c r="AQ8" s="32"/>
-      <c r="AR8" s="33"/>
-      <c r="AS8" s="34" t="s">
+      <c r="AJ8" s="69"/>
+      <c r="AK8" s="69"/>
+      <c r="AL8" s="69"/>
+      <c r="AM8" s="69"/>
+      <c r="AN8" s="69"/>
+      <c r="AO8" s="69"/>
+      <c r="AP8" s="69"/>
+      <c r="AQ8" s="69"/>
+      <c r="AR8" s="70"/>
+      <c r="AS8" s="61" t="s">
         <v>35</v>
       </c>
-      <c r="AT8" s="34"/>
-      <c r="AU8" s="34"/>
-      <c r="AV8" s="34"/>
-      <c r="AW8" s="34"/>
-      <c r="AX8" s="34"/>
-      <c r="AY8" s="34"/>
-      <c r="AZ8" s="34"/>
-      <c r="BA8" s="34"/>
-      <c r="BB8" s="34"/>
-      <c r="BC8" s="34"/>
-      <c r="BD8" s="34"/>
-      <c r="BE8" s="34"/>
-      <c r="BF8" s="34"/>
-      <c r="BG8" s="34"/>
-      <c r="BH8" s="34"/>
-      <c r="BI8" s="34"/>
-      <c r="BJ8" s="34"/>
-      <c r="BK8" s="34"/>
-      <c r="BL8" s="34"/>
-      <c r="BM8" s="34"/>
-      <c r="BN8" s="34"/>
-      <c r="BO8" s="34"/>
-      <c r="BP8" s="34"/>
-      <c r="BQ8" s="34"/>
-      <c r="BR8" s="34"/>
-      <c r="BS8" s="34"/>
-      <c r="BT8" s="34"/>
-      <c r="BU8" s="34"/>
-      <c r="BV8" s="34"/>
-      <c r="BW8" s="34"/>
-      <c r="BX8" s="34"/>
-      <c r="BY8" s="34"/>
-      <c r="BZ8" s="34"/>
-      <c r="CA8" s="34"/>
-      <c r="CB8" s="34"/>
-      <c r="CC8" s="34"/>
-      <c r="CD8" s="34"/>
-      <c r="CE8" s="34"/>
-      <c r="CF8" s="34"/>
-      <c r="CG8" s="34"/>
-      <c r="CH8" s="34"/>
-      <c r="CI8" s="34"/>
+      <c r="AT8" s="61"/>
+      <c r="AU8" s="61"/>
+      <c r="AV8" s="61"/>
+      <c r="AW8" s="61"/>
+      <c r="AX8" s="61"/>
+      <c r="AY8" s="61"/>
+      <c r="AZ8" s="61"/>
+      <c r="BA8" s="61"/>
+      <c r="BB8" s="61"/>
+      <c r="BC8" s="61"/>
+      <c r="BD8" s="61"/>
+      <c r="BE8" s="61"/>
+      <c r="BF8" s="61"/>
+      <c r="BG8" s="61"/>
+      <c r="BH8" s="61"/>
+      <c r="BI8" s="61"/>
+      <c r="BJ8" s="61"/>
+      <c r="BK8" s="61"/>
+      <c r="BL8" s="61"/>
+      <c r="BM8" s="61"/>
+      <c r="BN8" s="61"/>
+      <c r="BO8" s="61"/>
+      <c r="BP8" s="61"/>
+      <c r="BQ8" s="61"/>
+      <c r="BR8" s="61"/>
+      <c r="BS8" s="61"/>
+      <c r="BT8" s="61"/>
+      <c r="BU8" s="61"/>
+      <c r="BV8" s="61"/>
+      <c r="BW8" s="61"/>
+      <c r="BX8" s="61"/>
+      <c r="BY8" s="61"/>
+      <c r="BZ8" s="61"/>
+      <c r="CA8" s="61"/>
+      <c r="CB8" s="61"/>
+      <c r="CC8" s="61"/>
+      <c r="CD8" s="61"/>
+      <c r="CE8" s="61"/>
+      <c r="CF8" s="61"/>
+      <c r="CG8" s="61"/>
+      <c r="CH8" s="61"/>
+      <c r="CI8" s="61"/>
       <c r="CJ8" s="1"/>
       <c r="CK8" s="1"/>
       <c r="CL8" s="1"/>
@@ -15453,201 +15461,201 @@
       <c r="AMJ16" s="1"/>
     </row>
     <row r="17" spans="1:1024" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="B17" s="35" t="s">
+      <c r="B17" s="62" t="s">
         <v>6</v>
       </c>
-      <c r="C17" s="35"/>
-      <c r="D17" s="35"/>
-      <c r="E17" s="36" t="s">
+      <c r="C17" s="62"/>
+      <c r="D17" s="62"/>
+      <c r="E17" s="63" t="s">
         <v>7</v>
       </c>
-      <c r="F17" s="36"/>
-      <c r="G17" s="36"/>
-      <c r="H17" s="36"/>
-      <c r="I17" s="36"/>
-      <c r="J17" s="36"/>
-      <c r="K17" s="36"/>
-      <c r="L17" s="36"/>
-      <c r="M17" s="36"/>
-      <c r="N17" s="36"/>
-      <c r="O17" s="36"/>
-      <c r="P17" s="36"/>
-      <c r="Q17" s="36"/>
-      <c r="R17" s="36"/>
-      <c r="S17" s="36"/>
-      <c r="T17" s="36"/>
-      <c r="U17" s="36"/>
-      <c r="V17" s="36"/>
-      <c r="W17" s="36"/>
-      <c r="X17" s="36"/>
-      <c r="Y17" s="37" t="s">
+      <c r="F17" s="63"/>
+      <c r="G17" s="63"/>
+      <c r="H17" s="63"/>
+      <c r="I17" s="63"/>
+      <c r="J17" s="63"/>
+      <c r="K17" s="63"/>
+      <c r="L17" s="63"/>
+      <c r="M17" s="63"/>
+      <c r="N17" s="63"/>
+      <c r="O17" s="63"/>
+      <c r="P17" s="63"/>
+      <c r="Q17" s="63"/>
+      <c r="R17" s="63"/>
+      <c r="S17" s="63"/>
+      <c r="T17" s="63"/>
+      <c r="U17" s="63"/>
+      <c r="V17" s="63"/>
+      <c r="W17" s="63"/>
+      <c r="X17" s="63"/>
+      <c r="Y17" s="64" t="s">
         <v>8</v>
       </c>
-      <c r="Z17" s="38"/>
-      <c r="AA17" s="38"/>
-      <c r="AB17" s="38"/>
-      <c r="AC17" s="38"/>
-      <c r="AD17" s="38"/>
-      <c r="AE17" s="38"/>
-      <c r="AF17" s="38"/>
-      <c r="AG17" s="38"/>
-      <c r="AH17" s="39"/>
-      <c r="AI17" s="37" t="s">
+      <c r="Z17" s="65"/>
+      <c r="AA17" s="65"/>
+      <c r="AB17" s="65"/>
+      <c r="AC17" s="65"/>
+      <c r="AD17" s="65"/>
+      <c r="AE17" s="65"/>
+      <c r="AF17" s="65"/>
+      <c r="AG17" s="65"/>
+      <c r="AH17" s="66"/>
+      <c r="AI17" s="64" t="s">
         <v>10</v>
       </c>
-      <c r="AJ17" s="38"/>
-      <c r="AK17" s="38"/>
-      <c r="AL17" s="38"/>
-      <c r="AM17" s="38"/>
-      <c r="AN17" s="38"/>
-      <c r="AO17" s="38"/>
-      <c r="AP17" s="38"/>
-      <c r="AQ17" s="38"/>
-      <c r="AR17" s="39"/>
-      <c r="AS17" s="40" t="s">
+      <c r="AJ17" s="65"/>
+      <c r="AK17" s="65"/>
+      <c r="AL17" s="65"/>
+      <c r="AM17" s="65"/>
+      <c r="AN17" s="65"/>
+      <c r="AO17" s="65"/>
+      <c r="AP17" s="65"/>
+      <c r="AQ17" s="65"/>
+      <c r="AR17" s="66"/>
+      <c r="AS17" s="42" t="s">
         <v>12</v>
       </c>
-      <c r="AT17" s="40"/>
-      <c r="AU17" s="40"/>
-      <c r="AV17" s="40"/>
-      <c r="AW17" s="40"/>
-      <c r="AX17" s="40"/>
-      <c r="AY17" s="40"/>
-      <c r="AZ17" s="40"/>
-      <c r="BA17" s="40"/>
-      <c r="BB17" s="40"/>
-      <c r="BC17" s="40"/>
-      <c r="BD17" s="40"/>
-      <c r="BE17" s="40"/>
-      <c r="BF17" s="40"/>
-      <c r="BG17" s="40"/>
-      <c r="BH17" s="40"/>
-      <c r="BI17" s="40"/>
-      <c r="BJ17" s="40"/>
-      <c r="BK17" s="40"/>
-      <c r="BL17" s="40"/>
-      <c r="BM17" s="40"/>
-      <c r="BN17" s="40"/>
-      <c r="BO17" s="40"/>
-      <c r="BP17" s="40"/>
-      <c r="BQ17" s="40"/>
-      <c r="BR17" s="40"/>
-      <c r="BS17" s="40"/>
-      <c r="BT17" s="40"/>
-      <c r="BU17" s="40"/>
-      <c r="BV17" s="40"/>
-      <c r="BW17" s="40"/>
-      <c r="BX17" s="40"/>
-      <c r="BY17" s="40"/>
-      <c r="BZ17" s="40"/>
-      <c r="CA17" s="40"/>
-      <c r="CB17" s="40"/>
-      <c r="CC17" s="40"/>
-      <c r="CD17" s="40"/>
-      <c r="CE17" s="40"/>
-      <c r="CF17" s="40"/>
-      <c r="CG17" s="40"/>
-      <c r="CH17" s="40"/>
-      <c r="CI17" s="40"/>
+      <c r="AT17" s="42"/>
+      <c r="AU17" s="42"/>
+      <c r="AV17" s="42"/>
+      <c r="AW17" s="42"/>
+      <c r="AX17" s="42"/>
+      <c r="AY17" s="42"/>
+      <c r="AZ17" s="42"/>
+      <c r="BA17" s="42"/>
+      <c r="BB17" s="42"/>
+      <c r="BC17" s="42"/>
+      <c r="BD17" s="42"/>
+      <c r="BE17" s="42"/>
+      <c r="BF17" s="42"/>
+      <c r="BG17" s="42"/>
+      <c r="BH17" s="42"/>
+      <c r="BI17" s="42"/>
+      <c r="BJ17" s="42"/>
+      <c r="BK17" s="42"/>
+      <c r="BL17" s="42"/>
+      <c r="BM17" s="42"/>
+      <c r="BN17" s="42"/>
+      <c r="BO17" s="42"/>
+      <c r="BP17" s="42"/>
+      <c r="BQ17" s="42"/>
+      <c r="BR17" s="42"/>
+      <c r="BS17" s="42"/>
+      <c r="BT17" s="42"/>
+      <c r="BU17" s="42"/>
+      <c r="BV17" s="42"/>
+      <c r="BW17" s="42"/>
+      <c r="BX17" s="42"/>
+      <c r="BY17" s="42"/>
+      <c r="BZ17" s="42"/>
+      <c r="CA17" s="42"/>
+      <c r="CB17" s="42"/>
+      <c r="CC17" s="42"/>
+      <c r="CD17" s="42"/>
+      <c r="CE17" s="42"/>
+      <c r="CF17" s="42"/>
+      <c r="CG17" s="42"/>
+      <c r="CH17" s="42"/>
+      <c r="CI17" s="42"/>
     </row>
     <row r="18" spans="1:1024" ht="18" customHeight="1" thickBot="1">
       <c r="A18" s="2"/>
-      <c r="B18" s="30">
+      <c r="B18" s="59">
         <v>2</v>
       </c>
-      <c r="C18" s="30"/>
-      <c r="D18" s="30"/>
-      <c r="E18" s="58" t="s">
+      <c r="C18" s="59"/>
+      <c r="D18" s="59"/>
+      <c r="E18" s="60" t="s">
         <v>36</v>
       </c>
-      <c r="F18" s="58"/>
-      <c r="G18" s="58"/>
-      <c r="H18" s="58"/>
-      <c r="I18" s="58"/>
-      <c r="J18" s="58"/>
-      <c r="K18" s="58"/>
-      <c r="L18" s="58"/>
-      <c r="M18" s="58"/>
-      <c r="N18" s="58"/>
-      <c r="O18" s="58"/>
-      <c r="P18" s="58"/>
-      <c r="Q18" s="58"/>
-      <c r="R18" s="58"/>
-      <c r="S18" s="58"/>
-      <c r="T18" s="58"/>
-      <c r="U18" s="58"/>
-      <c r="V18" s="58"/>
-      <c r="W18" s="58"/>
-      <c r="X18" s="58"/>
-      <c r="Y18" s="53" t="s">
+      <c r="F18" s="60"/>
+      <c r="G18" s="60"/>
+      <c r="H18" s="60"/>
+      <c r="I18" s="60"/>
+      <c r="J18" s="60"/>
+      <c r="K18" s="60"/>
+      <c r="L18" s="60"/>
+      <c r="M18" s="60"/>
+      <c r="N18" s="60"/>
+      <c r="O18" s="60"/>
+      <c r="P18" s="60"/>
+      <c r="Q18" s="60"/>
+      <c r="R18" s="60"/>
+      <c r="S18" s="60"/>
+      <c r="T18" s="60"/>
+      <c r="U18" s="60"/>
+      <c r="V18" s="60"/>
+      <c r="W18" s="60"/>
+      <c r="X18" s="60"/>
+      <c r="Y18" s="50" t="s">
         <v>37</v>
       </c>
-      <c r="Z18" s="80"/>
-      <c r="AA18" s="80"/>
-      <c r="AB18" s="80"/>
-      <c r="AC18" s="80"/>
-      <c r="AD18" s="80"/>
-      <c r="AE18" s="80"/>
-      <c r="AF18" s="80"/>
-      <c r="AG18" s="80"/>
-      <c r="AH18" s="81"/>
-      <c r="AI18" s="53" t="s">
+      <c r="Z18" s="57"/>
+      <c r="AA18" s="57"/>
+      <c r="AB18" s="57"/>
+      <c r="AC18" s="57"/>
+      <c r="AD18" s="57"/>
+      <c r="AE18" s="57"/>
+      <c r="AF18" s="57"/>
+      <c r="AG18" s="57"/>
+      <c r="AH18" s="58"/>
+      <c r="AI18" s="50" t="s">
         <v>37</v>
       </c>
-      <c r="AJ18" s="80"/>
-      <c r="AK18" s="80"/>
-      <c r="AL18" s="80"/>
-      <c r="AM18" s="80"/>
-      <c r="AN18" s="80"/>
-      <c r="AO18" s="80"/>
-      <c r="AP18" s="80"/>
-      <c r="AQ18" s="80"/>
-      <c r="AR18" s="81"/>
-      <c r="AS18" s="34" t="s">
+      <c r="AJ18" s="57"/>
+      <c r="AK18" s="57"/>
+      <c r="AL18" s="57"/>
+      <c r="AM18" s="57"/>
+      <c r="AN18" s="57"/>
+      <c r="AO18" s="57"/>
+      <c r="AP18" s="57"/>
+      <c r="AQ18" s="57"/>
+      <c r="AR18" s="58"/>
+      <c r="AS18" s="61" t="s">
         <v>38</v>
       </c>
-      <c r="AT18" s="34"/>
-      <c r="AU18" s="34"/>
-      <c r="AV18" s="34"/>
-      <c r="AW18" s="34"/>
-      <c r="AX18" s="34"/>
-      <c r="AY18" s="34"/>
-      <c r="AZ18" s="34"/>
-      <c r="BA18" s="34"/>
-      <c r="BB18" s="34"/>
-      <c r="BC18" s="34"/>
-      <c r="BD18" s="34"/>
-      <c r="BE18" s="34"/>
-      <c r="BF18" s="34"/>
-      <c r="BG18" s="34"/>
-      <c r="BH18" s="34"/>
-      <c r="BI18" s="34"/>
-      <c r="BJ18" s="34"/>
-      <c r="BK18" s="34"/>
-      <c r="BL18" s="34"/>
-      <c r="BM18" s="34"/>
-      <c r="BN18" s="34"/>
-      <c r="BO18" s="34"/>
-      <c r="BP18" s="34"/>
-      <c r="BQ18" s="34"/>
-      <c r="BR18" s="34"/>
-      <c r="BS18" s="34"/>
-      <c r="BT18" s="34"/>
-      <c r="BU18" s="34"/>
-      <c r="BV18" s="34"/>
-      <c r="BW18" s="34"/>
-      <c r="BX18" s="34"/>
-      <c r="BY18" s="34"/>
-      <c r="BZ18" s="34"/>
-      <c r="CA18" s="34"/>
-      <c r="CB18" s="34"/>
-      <c r="CC18" s="34"/>
-      <c r="CD18" s="34"/>
-      <c r="CE18" s="34"/>
-      <c r="CF18" s="34"/>
-      <c r="CG18" s="34"/>
-      <c r="CH18" s="34"/>
-      <c r="CI18" s="34"/>
+      <c r="AT18" s="61"/>
+      <c r="AU18" s="61"/>
+      <c r="AV18" s="61"/>
+      <c r="AW18" s="61"/>
+      <c r="AX18" s="61"/>
+      <c r="AY18" s="61"/>
+      <c r="AZ18" s="61"/>
+      <c r="BA18" s="61"/>
+      <c r="BB18" s="61"/>
+      <c r="BC18" s="61"/>
+      <c r="BD18" s="61"/>
+      <c r="BE18" s="61"/>
+      <c r="BF18" s="61"/>
+      <c r="BG18" s="61"/>
+      <c r="BH18" s="61"/>
+      <c r="BI18" s="61"/>
+      <c r="BJ18" s="61"/>
+      <c r="BK18" s="61"/>
+      <c r="BL18" s="61"/>
+      <c r="BM18" s="61"/>
+      <c r="BN18" s="61"/>
+      <c r="BO18" s="61"/>
+      <c r="BP18" s="61"/>
+      <c r="BQ18" s="61"/>
+      <c r="BR18" s="61"/>
+      <c r="BS18" s="61"/>
+      <c r="BT18" s="61"/>
+      <c r="BU18" s="61"/>
+      <c r="BV18" s="61"/>
+      <c r="BW18" s="61"/>
+      <c r="BX18" s="61"/>
+      <c r="BY18" s="61"/>
+      <c r="BZ18" s="61"/>
+      <c r="CA18" s="61"/>
+      <c r="CB18" s="61"/>
+      <c r="CC18" s="61"/>
+      <c r="CD18" s="61"/>
+      <c r="CE18" s="61"/>
+      <c r="CF18" s="61"/>
+      <c r="CG18" s="61"/>
+      <c r="CH18" s="61"/>
+      <c r="CI18" s="61"/>
       <c r="CJ18" s="1"/>
       <c r="CK18" s="1"/>
       <c r="CL18" s="1"/>
@@ -19675,69 +19683,69 @@
       <c r="D22" s="23"/>
       <c r="E22" s="14"/>
       <c r="F22" s="14"/>
-      <c r="G22" s="41" t="s">
+      <c r="G22" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="H22" s="60"/>
-      <c r="I22" s="61"/>
-      <c r="J22" s="62" t="s">
+      <c r="H22" s="45"/>
+      <c r="I22" s="46"/>
+      <c r="J22" s="47" t="s">
         <v>17</v>
       </c>
-      <c r="K22" s="63"/>
-      <c r="L22" s="63"/>
-      <c r="M22" s="63"/>
-      <c r="N22" s="63"/>
-      <c r="O22" s="63"/>
-      <c r="P22" s="63"/>
-      <c r="Q22" s="63"/>
-      <c r="R22" s="63"/>
-      <c r="S22" s="63"/>
-      <c r="T22" s="60"/>
-      <c r="U22" s="60"/>
-      <c r="V22" s="60"/>
-      <c r="W22" s="60"/>
-      <c r="X22" s="61"/>
-      <c r="Y22" s="41" t="s">
+      <c r="K22" s="48"/>
+      <c r="L22" s="48"/>
+      <c r="M22" s="48"/>
+      <c r="N22" s="48"/>
+      <c r="O22" s="48"/>
+      <c r="P22" s="48"/>
+      <c r="Q22" s="48"/>
+      <c r="R22" s="48"/>
+      <c r="S22" s="48"/>
+      <c r="T22" s="45"/>
+      <c r="U22" s="45"/>
+      <c r="V22" s="45"/>
+      <c r="W22" s="45"/>
+      <c r="X22" s="46"/>
+      <c r="Y22" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="Z22" s="42"/>
-      <c r="AA22" s="42"/>
-      <c r="AB22" s="42"/>
-      <c r="AC22" s="42"/>
-      <c r="AD22" s="42"/>
-      <c r="AE22" s="42"/>
-      <c r="AF22" s="42"/>
-      <c r="AG22" s="42"/>
-      <c r="AH22" s="42"/>
-      <c r="AI22" s="42"/>
-      <c r="AJ22" s="42"/>
-      <c r="AK22" s="42"/>
-      <c r="AL22" s="42"/>
-      <c r="AM22" s="42"/>
-      <c r="AN22" s="42"/>
-      <c r="AO22" s="42"/>
-      <c r="AP22" s="42"/>
-      <c r="AQ22" s="42"/>
-      <c r="AR22" s="42"/>
-      <c r="AS22" s="42"/>
-      <c r="AT22" s="42"/>
-      <c r="AU22" s="42"/>
-      <c r="AV22" s="42"/>
-      <c r="AW22" s="42"/>
-      <c r="AX22" s="42"/>
-      <c r="AY22" s="42"/>
-      <c r="AZ22" s="42"/>
-      <c r="BA22" s="42"/>
-      <c r="BB22" s="42"/>
-      <c r="BC22" s="42"/>
-      <c r="BD22" s="42"/>
-      <c r="BE22" s="42"/>
-      <c r="BF22" s="42"/>
-      <c r="BG22" s="42"/>
-      <c r="BH22" s="42"/>
-      <c r="BI22" s="42"/>
-      <c r="BJ22" s="42"/>
-      <c r="BK22" s="43"/>
+      <c r="Z22" s="31"/>
+      <c r="AA22" s="31"/>
+      <c r="AB22" s="31"/>
+      <c r="AC22" s="31"/>
+      <c r="AD22" s="31"/>
+      <c r="AE22" s="31"/>
+      <c r="AF22" s="31"/>
+      <c r="AG22" s="31"/>
+      <c r="AH22" s="31"/>
+      <c r="AI22" s="31"/>
+      <c r="AJ22" s="31"/>
+      <c r="AK22" s="31"/>
+      <c r="AL22" s="31"/>
+      <c r="AM22" s="31"/>
+      <c r="AN22" s="31"/>
+      <c r="AO22" s="31"/>
+      <c r="AP22" s="31"/>
+      <c r="AQ22" s="31"/>
+      <c r="AR22" s="31"/>
+      <c r="AS22" s="31"/>
+      <c r="AT22" s="31"/>
+      <c r="AU22" s="31"/>
+      <c r="AV22" s="31"/>
+      <c r="AW22" s="31"/>
+      <c r="AX22" s="31"/>
+      <c r="AY22" s="31"/>
+      <c r="AZ22" s="31"/>
+      <c r="BA22" s="31"/>
+      <c r="BB22" s="31"/>
+      <c r="BC22" s="31"/>
+      <c r="BD22" s="31"/>
+      <c r="BE22" s="31"/>
+      <c r="BF22" s="31"/>
+      <c r="BG22" s="31"/>
+      <c r="BH22" s="31"/>
+      <c r="BI22" s="31"/>
+      <c r="BJ22" s="31"/>
+      <c r="BK22" s="32"/>
       <c r="BL22" s="23"/>
       <c r="BM22" s="23"/>
       <c r="BN22" s="23"/>
@@ -20707,69 +20715,69 @@
       <c r="D23" s="23"/>
       <c r="E23" s="14"/>
       <c r="F23" s="14"/>
-      <c r="G23" s="53">
+      <c r="G23" s="50">
         <v>1</v>
       </c>
-      <c r="H23" s="42"/>
-      <c r="I23" s="43"/>
-      <c r="J23" s="53" t="s">
+      <c r="H23" s="31"/>
+      <c r="I23" s="32"/>
+      <c r="J23" s="50" t="s">
         <v>39</v>
       </c>
-      <c r="K23" s="42"/>
-      <c r="L23" s="42"/>
-      <c r="M23" s="42"/>
-      <c r="N23" s="42"/>
-      <c r="O23" s="42"/>
-      <c r="P23" s="42"/>
-      <c r="Q23" s="42"/>
-      <c r="R23" s="42"/>
-      <c r="S23" s="42"/>
-      <c r="T23" s="42"/>
-      <c r="U23" s="42"/>
-      <c r="V23" s="42"/>
-      <c r="W23" s="42"/>
-      <c r="X23" s="43"/>
-      <c r="Y23" s="54" t="s">
+      <c r="K23" s="31"/>
+      <c r="L23" s="31"/>
+      <c r="M23" s="31"/>
+      <c r="N23" s="31"/>
+      <c r="O23" s="31"/>
+      <c r="P23" s="31"/>
+      <c r="Q23" s="31"/>
+      <c r="R23" s="31"/>
+      <c r="S23" s="31"/>
+      <c r="T23" s="31"/>
+      <c r="U23" s="31"/>
+      <c r="V23" s="31"/>
+      <c r="W23" s="31"/>
+      <c r="X23" s="32"/>
+      <c r="Y23" s="49" t="s">
         <v>45</v>
       </c>
-      <c r="Z23" s="42"/>
-      <c r="AA23" s="42"/>
-      <c r="AB23" s="42"/>
-      <c r="AC23" s="42"/>
-      <c r="AD23" s="42"/>
-      <c r="AE23" s="42"/>
-      <c r="AF23" s="42"/>
-      <c r="AG23" s="42"/>
-      <c r="AH23" s="42"/>
-      <c r="AI23" s="42"/>
-      <c r="AJ23" s="42"/>
-      <c r="AK23" s="42"/>
-      <c r="AL23" s="42"/>
-      <c r="AM23" s="42"/>
-      <c r="AN23" s="42"/>
-      <c r="AO23" s="42"/>
-      <c r="AP23" s="42"/>
-      <c r="AQ23" s="42"/>
-      <c r="AR23" s="42"/>
-      <c r="AS23" s="42"/>
-      <c r="AT23" s="42"/>
-      <c r="AU23" s="42"/>
-      <c r="AV23" s="42"/>
-      <c r="AW23" s="42"/>
-      <c r="AX23" s="42"/>
-      <c r="AY23" s="42"/>
-      <c r="AZ23" s="42"/>
-      <c r="BA23" s="42"/>
-      <c r="BB23" s="42"/>
-      <c r="BC23" s="42"/>
-      <c r="BD23" s="42"/>
-      <c r="BE23" s="42"/>
-      <c r="BF23" s="42"/>
-      <c r="BG23" s="42"/>
-      <c r="BH23" s="42"/>
-      <c r="BI23" s="42"/>
-      <c r="BJ23" s="42"/>
-      <c r="BK23" s="43"/>
+      <c r="Z23" s="31"/>
+      <c r="AA23" s="31"/>
+      <c r="AB23" s="31"/>
+      <c r="AC23" s="31"/>
+      <c r="AD23" s="31"/>
+      <c r="AE23" s="31"/>
+      <c r="AF23" s="31"/>
+      <c r="AG23" s="31"/>
+      <c r="AH23" s="31"/>
+      <c r="AI23" s="31"/>
+      <c r="AJ23" s="31"/>
+      <c r="AK23" s="31"/>
+      <c r="AL23" s="31"/>
+      <c r="AM23" s="31"/>
+      <c r="AN23" s="31"/>
+      <c r="AO23" s="31"/>
+      <c r="AP23" s="31"/>
+      <c r="AQ23" s="31"/>
+      <c r="AR23" s="31"/>
+      <c r="AS23" s="31"/>
+      <c r="AT23" s="31"/>
+      <c r="AU23" s="31"/>
+      <c r="AV23" s="31"/>
+      <c r="AW23" s="31"/>
+      <c r="AX23" s="31"/>
+      <c r="AY23" s="31"/>
+      <c r="AZ23" s="31"/>
+      <c r="BA23" s="31"/>
+      <c r="BB23" s="31"/>
+      <c r="BC23" s="31"/>
+      <c r="BD23" s="31"/>
+      <c r="BE23" s="31"/>
+      <c r="BF23" s="31"/>
+      <c r="BG23" s="31"/>
+      <c r="BH23" s="31"/>
+      <c r="BI23" s="31"/>
+      <c r="BJ23" s="31"/>
+      <c r="BK23" s="32"/>
       <c r="BL23" s="23"/>
       <c r="BM23" s="23"/>
       <c r="BN23" s="23"/>
@@ -24821,69 +24829,69 @@
       <c r="D27" s="23"/>
       <c r="E27" s="14"/>
       <c r="F27" s="14"/>
-      <c r="G27" s="41" t="s">
+      <c r="G27" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="H27" s="60"/>
-      <c r="I27" s="61"/>
-      <c r="J27" s="62" t="s">
+      <c r="H27" s="45"/>
+      <c r="I27" s="46"/>
+      <c r="J27" s="47" t="s">
         <v>17</v>
       </c>
-      <c r="K27" s="63"/>
-      <c r="L27" s="63"/>
-      <c r="M27" s="63"/>
-      <c r="N27" s="63"/>
-      <c r="O27" s="63"/>
-      <c r="P27" s="63"/>
-      <c r="Q27" s="63"/>
-      <c r="R27" s="63"/>
-      <c r="S27" s="63"/>
-      <c r="T27" s="60"/>
-      <c r="U27" s="60"/>
-      <c r="V27" s="60"/>
-      <c r="W27" s="60"/>
-      <c r="X27" s="61"/>
-      <c r="Y27" s="41" t="s">
+      <c r="K27" s="48"/>
+      <c r="L27" s="48"/>
+      <c r="M27" s="48"/>
+      <c r="N27" s="48"/>
+      <c r="O27" s="48"/>
+      <c r="P27" s="48"/>
+      <c r="Q27" s="48"/>
+      <c r="R27" s="48"/>
+      <c r="S27" s="48"/>
+      <c r="T27" s="45"/>
+      <c r="U27" s="45"/>
+      <c r="V27" s="45"/>
+      <c r="W27" s="45"/>
+      <c r="X27" s="46"/>
+      <c r="Y27" s="30" t="s">
         <v>48</v>
       </c>
-      <c r="Z27" s="42"/>
-      <c r="AA27" s="42"/>
-      <c r="AB27" s="42"/>
-      <c r="AC27" s="42"/>
-      <c r="AD27" s="42"/>
-      <c r="AE27" s="42"/>
-      <c r="AF27" s="42"/>
-      <c r="AG27" s="42"/>
-      <c r="AH27" s="42"/>
-      <c r="AI27" s="42"/>
-      <c r="AJ27" s="42"/>
-      <c r="AK27" s="42"/>
-      <c r="AL27" s="42"/>
-      <c r="AM27" s="42"/>
-      <c r="AN27" s="42"/>
-      <c r="AO27" s="42"/>
-      <c r="AP27" s="42"/>
-      <c r="AQ27" s="42"/>
-      <c r="AR27" s="42"/>
-      <c r="AS27" s="42"/>
-      <c r="AT27" s="42"/>
-      <c r="AU27" s="42"/>
-      <c r="AV27" s="42"/>
-      <c r="AW27" s="42"/>
-      <c r="AX27" s="42"/>
-      <c r="AY27" s="42"/>
-      <c r="AZ27" s="42"/>
-      <c r="BA27" s="42"/>
-      <c r="BB27" s="42"/>
-      <c r="BC27" s="42"/>
-      <c r="BD27" s="42"/>
-      <c r="BE27" s="42"/>
-      <c r="BF27" s="42"/>
-      <c r="BG27" s="42"/>
-      <c r="BH27" s="42"/>
-      <c r="BI27" s="42"/>
-      <c r="BJ27" s="42"/>
-      <c r="BK27" s="43"/>
+      <c r="Z27" s="31"/>
+      <c r="AA27" s="31"/>
+      <c r="AB27" s="31"/>
+      <c r="AC27" s="31"/>
+      <c r="AD27" s="31"/>
+      <c r="AE27" s="31"/>
+      <c r="AF27" s="31"/>
+      <c r="AG27" s="31"/>
+      <c r="AH27" s="31"/>
+      <c r="AI27" s="31"/>
+      <c r="AJ27" s="31"/>
+      <c r="AK27" s="31"/>
+      <c r="AL27" s="31"/>
+      <c r="AM27" s="31"/>
+      <c r="AN27" s="31"/>
+      <c r="AO27" s="31"/>
+      <c r="AP27" s="31"/>
+      <c r="AQ27" s="31"/>
+      <c r="AR27" s="31"/>
+      <c r="AS27" s="31"/>
+      <c r="AT27" s="31"/>
+      <c r="AU27" s="31"/>
+      <c r="AV27" s="31"/>
+      <c r="AW27" s="31"/>
+      <c r="AX27" s="31"/>
+      <c r="AY27" s="31"/>
+      <c r="AZ27" s="31"/>
+      <c r="BA27" s="31"/>
+      <c r="BB27" s="31"/>
+      <c r="BC27" s="31"/>
+      <c r="BD27" s="31"/>
+      <c r="BE27" s="31"/>
+      <c r="BF27" s="31"/>
+      <c r="BG27" s="31"/>
+      <c r="BH27" s="31"/>
+      <c r="BI27" s="31"/>
+      <c r="BJ27" s="31"/>
+      <c r="BK27" s="32"/>
       <c r="BL27" s="23"/>
       <c r="BM27" s="23"/>
       <c r="BN27" s="23"/>
@@ -25853,69 +25861,69 @@
       <c r="D28" s="23"/>
       <c r="E28" s="14"/>
       <c r="F28" s="14"/>
-      <c r="G28" s="53">
+      <c r="G28" s="50">
         <v>1</v>
       </c>
-      <c r="H28" s="42"/>
-      <c r="I28" s="43"/>
-      <c r="J28" s="53" t="s">
+      <c r="H28" s="31"/>
+      <c r="I28" s="32"/>
+      <c r="J28" s="50" t="s">
         <v>47</v>
       </c>
-      <c r="K28" s="42"/>
-      <c r="L28" s="42"/>
-      <c r="M28" s="42"/>
-      <c r="N28" s="42"/>
-      <c r="O28" s="42"/>
-      <c r="P28" s="42"/>
-      <c r="Q28" s="42"/>
-      <c r="R28" s="42"/>
-      <c r="S28" s="42"/>
-      <c r="T28" s="42"/>
-      <c r="U28" s="42"/>
-      <c r="V28" s="42"/>
-      <c r="W28" s="42"/>
-      <c r="X28" s="43"/>
-      <c r="Y28" s="54" t="s">
+      <c r="K28" s="31"/>
+      <c r="L28" s="31"/>
+      <c r="M28" s="31"/>
+      <c r="N28" s="31"/>
+      <c r="O28" s="31"/>
+      <c r="P28" s="31"/>
+      <c r="Q28" s="31"/>
+      <c r="R28" s="31"/>
+      <c r="S28" s="31"/>
+      <c r="T28" s="31"/>
+      <c r="U28" s="31"/>
+      <c r="V28" s="31"/>
+      <c r="W28" s="31"/>
+      <c r="X28" s="32"/>
+      <c r="Y28" s="49" t="s">
         <v>49</v>
       </c>
-      <c r="Z28" s="42"/>
-      <c r="AA28" s="42"/>
-      <c r="AB28" s="42"/>
-      <c r="AC28" s="42"/>
-      <c r="AD28" s="42"/>
-      <c r="AE28" s="42"/>
-      <c r="AF28" s="42"/>
-      <c r="AG28" s="42"/>
-      <c r="AH28" s="42"/>
-      <c r="AI28" s="42"/>
-      <c r="AJ28" s="42"/>
-      <c r="AK28" s="42"/>
-      <c r="AL28" s="42"/>
-      <c r="AM28" s="42"/>
-      <c r="AN28" s="42"/>
-      <c r="AO28" s="42"/>
-      <c r="AP28" s="42"/>
-      <c r="AQ28" s="42"/>
-      <c r="AR28" s="42"/>
-      <c r="AS28" s="42"/>
-      <c r="AT28" s="42"/>
-      <c r="AU28" s="42"/>
-      <c r="AV28" s="42"/>
-      <c r="AW28" s="42"/>
-      <c r="AX28" s="42"/>
-      <c r="AY28" s="42"/>
-      <c r="AZ28" s="42"/>
-      <c r="BA28" s="42"/>
-      <c r="BB28" s="42"/>
-      <c r="BC28" s="42"/>
-      <c r="BD28" s="42"/>
-      <c r="BE28" s="42"/>
-      <c r="BF28" s="42"/>
-      <c r="BG28" s="42"/>
-      <c r="BH28" s="42"/>
-      <c r="BI28" s="42"/>
-      <c r="BJ28" s="42"/>
-      <c r="BK28" s="43"/>
+      <c r="Z28" s="31"/>
+      <c r="AA28" s="31"/>
+      <c r="AB28" s="31"/>
+      <c r="AC28" s="31"/>
+      <c r="AD28" s="31"/>
+      <c r="AE28" s="31"/>
+      <c r="AF28" s="31"/>
+      <c r="AG28" s="31"/>
+      <c r="AH28" s="31"/>
+      <c r="AI28" s="31"/>
+      <c r="AJ28" s="31"/>
+      <c r="AK28" s="31"/>
+      <c r="AL28" s="31"/>
+      <c r="AM28" s="31"/>
+      <c r="AN28" s="31"/>
+      <c r="AO28" s="31"/>
+      <c r="AP28" s="31"/>
+      <c r="AQ28" s="31"/>
+      <c r="AR28" s="31"/>
+      <c r="AS28" s="31"/>
+      <c r="AT28" s="31"/>
+      <c r="AU28" s="31"/>
+      <c r="AV28" s="31"/>
+      <c r="AW28" s="31"/>
+      <c r="AX28" s="31"/>
+      <c r="AY28" s="31"/>
+      <c r="AZ28" s="31"/>
+      <c r="BA28" s="31"/>
+      <c r="BB28" s="31"/>
+      <c r="BC28" s="31"/>
+      <c r="BD28" s="31"/>
+      <c r="BE28" s="31"/>
+      <c r="BF28" s="31"/>
+      <c r="BG28" s="31"/>
+      <c r="BH28" s="31"/>
+      <c r="BI28" s="31"/>
+      <c r="BJ28" s="31"/>
+      <c r="BK28" s="32"/>
       <c r="BL28" s="23"/>
       <c r="BM28" s="23"/>
       <c r="BN28" s="23"/>
@@ -30983,201 +30991,201 @@
       <c r="AMJ32" s="1"/>
     </row>
     <row r="33" spans="1:1024" s="2" customFormat="1" ht="18" customHeight="1">
-      <c r="B33" s="82" t="s">
+      <c r="B33" s="51" t="s">
         <v>6</v>
       </c>
-      <c r="C33" s="56"/>
-      <c r="D33" s="83"/>
-      <c r="E33" s="84" t="s">
+      <c r="C33" s="52"/>
+      <c r="D33" s="53"/>
+      <c r="E33" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="F33" s="85"/>
-      <c r="G33" s="85"/>
-      <c r="H33" s="85"/>
-      <c r="I33" s="85"/>
-      <c r="J33" s="85"/>
-      <c r="K33" s="85"/>
-      <c r="L33" s="85"/>
-      <c r="M33" s="85"/>
-      <c r="N33" s="85"/>
-      <c r="O33" s="85"/>
-      <c r="P33" s="85"/>
-      <c r="Q33" s="85"/>
-      <c r="R33" s="85"/>
-      <c r="S33" s="85"/>
-      <c r="T33" s="85"/>
-      <c r="U33" s="85"/>
-      <c r="V33" s="85"/>
-      <c r="W33" s="85"/>
-      <c r="X33" s="86"/>
-      <c r="Y33" s="37" t="s">
+      <c r="F33" s="55"/>
+      <c r="G33" s="55"/>
+      <c r="H33" s="55"/>
+      <c r="I33" s="55"/>
+      <c r="J33" s="55"/>
+      <c r="K33" s="55"/>
+      <c r="L33" s="55"/>
+      <c r="M33" s="55"/>
+      <c r="N33" s="55"/>
+      <c r="O33" s="55"/>
+      <c r="P33" s="55"/>
+      <c r="Q33" s="55"/>
+      <c r="R33" s="55"/>
+      <c r="S33" s="55"/>
+      <c r="T33" s="55"/>
+      <c r="U33" s="55"/>
+      <c r="V33" s="55"/>
+      <c r="W33" s="55"/>
+      <c r="X33" s="56"/>
+      <c r="Y33" s="64" t="s">
         <v>8</v>
       </c>
-      <c r="Z33" s="38"/>
-      <c r="AA33" s="38"/>
-      <c r="AB33" s="38"/>
-      <c r="AC33" s="38"/>
-      <c r="AD33" s="38"/>
-      <c r="AE33" s="38"/>
-      <c r="AF33" s="38"/>
-      <c r="AG33" s="38"/>
-      <c r="AH33" s="39"/>
-      <c r="AI33" s="37" t="s">
+      <c r="Z33" s="65"/>
+      <c r="AA33" s="65"/>
+      <c r="AB33" s="65"/>
+      <c r="AC33" s="65"/>
+      <c r="AD33" s="65"/>
+      <c r="AE33" s="65"/>
+      <c r="AF33" s="65"/>
+      <c r="AG33" s="65"/>
+      <c r="AH33" s="66"/>
+      <c r="AI33" s="64" t="s">
         <v>10</v>
       </c>
-      <c r="AJ33" s="38"/>
-      <c r="AK33" s="38"/>
-      <c r="AL33" s="38"/>
-      <c r="AM33" s="38"/>
-      <c r="AN33" s="38"/>
-      <c r="AO33" s="38"/>
-      <c r="AP33" s="38"/>
-      <c r="AQ33" s="38"/>
-      <c r="AR33" s="39"/>
-      <c r="AS33" s="55" t="s">
+      <c r="AJ33" s="65"/>
+      <c r="AK33" s="65"/>
+      <c r="AL33" s="65"/>
+      <c r="AM33" s="65"/>
+      <c r="AN33" s="65"/>
+      <c r="AO33" s="65"/>
+      <c r="AP33" s="65"/>
+      <c r="AQ33" s="65"/>
+      <c r="AR33" s="66"/>
+      <c r="AS33" s="85" t="s">
         <v>12</v>
       </c>
-      <c r="AT33" s="56"/>
-      <c r="AU33" s="56"/>
-      <c r="AV33" s="56"/>
-      <c r="AW33" s="56"/>
-      <c r="AX33" s="56"/>
-      <c r="AY33" s="56"/>
-      <c r="AZ33" s="56"/>
-      <c r="BA33" s="56"/>
-      <c r="BB33" s="56"/>
-      <c r="BC33" s="56"/>
-      <c r="BD33" s="56"/>
-      <c r="BE33" s="56"/>
-      <c r="BF33" s="56"/>
-      <c r="BG33" s="56"/>
-      <c r="BH33" s="56"/>
-      <c r="BI33" s="56"/>
-      <c r="BJ33" s="56"/>
-      <c r="BK33" s="56"/>
-      <c r="BL33" s="56"/>
-      <c r="BM33" s="56"/>
-      <c r="BN33" s="56"/>
-      <c r="BO33" s="56"/>
-      <c r="BP33" s="56"/>
-      <c r="BQ33" s="56"/>
-      <c r="BR33" s="56"/>
-      <c r="BS33" s="56"/>
-      <c r="BT33" s="56"/>
-      <c r="BU33" s="56"/>
-      <c r="BV33" s="56"/>
-      <c r="BW33" s="56"/>
-      <c r="BX33" s="56"/>
-      <c r="BY33" s="56"/>
-      <c r="BZ33" s="56"/>
-      <c r="CA33" s="56"/>
-      <c r="CB33" s="56"/>
-      <c r="CC33" s="56"/>
-      <c r="CD33" s="56"/>
-      <c r="CE33" s="56"/>
-      <c r="CF33" s="56"/>
-      <c r="CG33" s="56"/>
-      <c r="CH33" s="56"/>
-      <c r="CI33" s="57"/>
+      <c r="AT33" s="52"/>
+      <c r="AU33" s="52"/>
+      <c r="AV33" s="52"/>
+      <c r="AW33" s="52"/>
+      <c r="AX33" s="52"/>
+      <c r="AY33" s="52"/>
+      <c r="AZ33" s="52"/>
+      <c r="BA33" s="52"/>
+      <c r="BB33" s="52"/>
+      <c r="BC33" s="52"/>
+      <c r="BD33" s="52"/>
+      <c r="BE33" s="52"/>
+      <c r="BF33" s="52"/>
+      <c r="BG33" s="52"/>
+      <c r="BH33" s="52"/>
+      <c r="BI33" s="52"/>
+      <c r="BJ33" s="52"/>
+      <c r="BK33" s="52"/>
+      <c r="BL33" s="52"/>
+      <c r="BM33" s="52"/>
+      <c r="BN33" s="52"/>
+      <c r="BO33" s="52"/>
+      <c r="BP33" s="52"/>
+      <c r="BQ33" s="52"/>
+      <c r="BR33" s="52"/>
+      <c r="BS33" s="52"/>
+      <c r="BT33" s="52"/>
+      <c r="BU33" s="52"/>
+      <c r="BV33" s="52"/>
+      <c r="BW33" s="52"/>
+      <c r="BX33" s="52"/>
+      <c r="BY33" s="52"/>
+      <c r="BZ33" s="52"/>
+      <c r="CA33" s="52"/>
+      <c r="CB33" s="52"/>
+      <c r="CC33" s="52"/>
+      <c r="CD33" s="52"/>
+      <c r="CE33" s="52"/>
+      <c r="CF33" s="52"/>
+      <c r="CG33" s="52"/>
+      <c r="CH33" s="52"/>
+      <c r="CI33" s="86"/>
     </row>
     <row r="34" spans="1:1024" ht="18" customHeight="1">
       <c r="A34" s="2"/>
-      <c r="B34" s="30">
+      <c r="B34" s="59">
         <v>3</v>
       </c>
-      <c r="C34" s="30"/>
-      <c r="D34" s="30"/>
-      <c r="E34" s="58" t="s">
+      <c r="C34" s="59"/>
+      <c r="D34" s="59"/>
+      <c r="E34" s="60" t="s">
         <v>40</v>
       </c>
-      <c r="F34" s="58"/>
-      <c r="G34" s="58"/>
-      <c r="H34" s="58"/>
-      <c r="I34" s="58"/>
-      <c r="J34" s="58"/>
-      <c r="K34" s="58"/>
-      <c r="L34" s="58"/>
-      <c r="M34" s="58"/>
-      <c r="N34" s="58"/>
-      <c r="O34" s="58"/>
-      <c r="P34" s="58"/>
-      <c r="Q34" s="58"/>
-      <c r="R34" s="58"/>
-      <c r="S34" s="58"/>
-      <c r="T34" s="58"/>
-      <c r="U34" s="58"/>
-      <c r="V34" s="58"/>
-      <c r="W34" s="58"/>
-      <c r="X34" s="58"/>
-      <c r="Y34" s="53" t="s">
+      <c r="F34" s="60"/>
+      <c r="G34" s="60"/>
+      <c r="H34" s="60"/>
+      <c r="I34" s="60"/>
+      <c r="J34" s="60"/>
+      <c r="K34" s="60"/>
+      <c r="L34" s="60"/>
+      <c r="M34" s="60"/>
+      <c r="N34" s="60"/>
+      <c r="O34" s="60"/>
+      <c r="P34" s="60"/>
+      <c r="Q34" s="60"/>
+      <c r="R34" s="60"/>
+      <c r="S34" s="60"/>
+      <c r="T34" s="60"/>
+      <c r="U34" s="60"/>
+      <c r="V34" s="60"/>
+      <c r="W34" s="60"/>
+      <c r="X34" s="60"/>
+      <c r="Y34" s="50" t="s">
         <v>41</v>
       </c>
-      <c r="Z34" s="80"/>
-      <c r="AA34" s="80"/>
-      <c r="AB34" s="80"/>
-      <c r="AC34" s="80"/>
-      <c r="AD34" s="80"/>
-      <c r="AE34" s="80"/>
-      <c r="AF34" s="80"/>
-      <c r="AG34" s="80"/>
-      <c r="AH34" s="81"/>
-      <c r="AI34" s="53" t="s">
+      <c r="Z34" s="57"/>
+      <c r="AA34" s="57"/>
+      <c r="AB34" s="57"/>
+      <c r="AC34" s="57"/>
+      <c r="AD34" s="57"/>
+      <c r="AE34" s="57"/>
+      <c r="AF34" s="57"/>
+      <c r="AG34" s="57"/>
+      <c r="AH34" s="58"/>
+      <c r="AI34" s="50" t="s">
         <v>29</v>
       </c>
-      <c r="AJ34" s="80"/>
-      <c r="AK34" s="80"/>
-      <c r="AL34" s="80"/>
-      <c r="AM34" s="80"/>
-      <c r="AN34" s="80"/>
-      <c r="AO34" s="80"/>
-      <c r="AP34" s="80"/>
-      <c r="AQ34" s="80"/>
-      <c r="AR34" s="81"/>
-      <c r="AS34" s="59" t="s">
+      <c r="AJ34" s="57"/>
+      <c r="AK34" s="57"/>
+      <c r="AL34" s="57"/>
+      <c r="AM34" s="57"/>
+      <c r="AN34" s="57"/>
+      <c r="AO34" s="57"/>
+      <c r="AP34" s="57"/>
+      <c r="AQ34" s="57"/>
+      <c r="AR34" s="58"/>
+      <c r="AS34" s="87" t="s">
         <v>51</v>
       </c>
-      <c r="AT34" s="59"/>
-      <c r="AU34" s="59"/>
-      <c r="AV34" s="59"/>
-      <c r="AW34" s="59"/>
-      <c r="AX34" s="59"/>
-      <c r="AY34" s="59"/>
-      <c r="AZ34" s="59"/>
-      <c r="BA34" s="59"/>
-      <c r="BB34" s="59"/>
-      <c r="BC34" s="59"/>
-      <c r="BD34" s="59"/>
-      <c r="BE34" s="59"/>
-      <c r="BF34" s="59"/>
-      <c r="BG34" s="59"/>
-      <c r="BH34" s="59"/>
-      <c r="BI34" s="59"/>
-      <c r="BJ34" s="59"/>
-      <c r="BK34" s="59"/>
-      <c r="BL34" s="59"/>
-      <c r="BM34" s="59"/>
-      <c r="BN34" s="59"/>
-      <c r="BO34" s="59"/>
-      <c r="BP34" s="59"/>
-      <c r="BQ34" s="59"/>
-      <c r="BR34" s="59"/>
-      <c r="BS34" s="59"/>
-      <c r="BT34" s="59"/>
-      <c r="BU34" s="59"/>
-      <c r="BV34" s="59"/>
-      <c r="BW34" s="59"/>
-      <c r="BX34" s="59"/>
-      <c r="BY34" s="59"/>
-      <c r="BZ34" s="59"/>
-      <c r="CA34" s="59"/>
-      <c r="CB34" s="59"/>
-      <c r="CC34" s="59"/>
-      <c r="CD34" s="59"/>
-      <c r="CE34" s="59"/>
-      <c r="CF34" s="59"/>
-      <c r="CG34" s="59"/>
-      <c r="CH34" s="59"/>
-      <c r="CI34" s="59"/>
+      <c r="AT34" s="87"/>
+      <c r="AU34" s="87"/>
+      <c r="AV34" s="87"/>
+      <c r="AW34" s="87"/>
+      <c r="AX34" s="87"/>
+      <c r="AY34" s="87"/>
+      <c r="AZ34" s="87"/>
+      <c r="BA34" s="87"/>
+      <c r="BB34" s="87"/>
+      <c r="BC34" s="87"/>
+      <c r="BD34" s="87"/>
+      <c r="BE34" s="87"/>
+      <c r="BF34" s="87"/>
+      <c r="BG34" s="87"/>
+      <c r="BH34" s="87"/>
+      <c r="BI34" s="87"/>
+      <c r="BJ34" s="87"/>
+      <c r="BK34" s="87"/>
+      <c r="BL34" s="87"/>
+      <c r="BM34" s="87"/>
+      <c r="BN34" s="87"/>
+      <c r="BO34" s="87"/>
+      <c r="BP34" s="87"/>
+      <c r="BQ34" s="87"/>
+      <c r="BR34" s="87"/>
+      <c r="BS34" s="87"/>
+      <c r="BT34" s="87"/>
+      <c r="BU34" s="87"/>
+      <c r="BV34" s="87"/>
+      <c r="BW34" s="87"/>
+      <c r="BX34" s="87"/>
+      <c r="BY34" s="87"/>
+      <c r="BZ34" s="87"/>
+      <c r="CA34" s="87"/>
+      <c r="CB34" s="87"/>
+      <c r="CC34" s="87"/>
+      <c r="CD34" s="87"/>
+      <c r="CE34" s="87"/>
+      <c r="CF34" s="87"/>
+      <c r="CG34" s="87"/>
+      <c r="CH34" s="87"/>
+      <c r="CI34" s="87"/>
       <c r="CJ34" s="1"/>
       <c r="CK34" s="1"/>
       <c r="CL34" s="1"/>
@@ -36233,69 +36241,69 @@
       <c r="D39" s="23"/>
       <c r="E39" s="14"/>
       <c r="F39" s="14"/>
-      <c r="G39" s="41" t="s">
+      <c r="G39" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="H39" s="60"/>
-      <c r="I39" s="61"/>
-      <c r="J39" s="62" t="s">
+      <c r="H39" s="45"/>
+      <c r="I39" s="46"/>
+      <c r="J39" s="47" t="s">
         <v>17</v>
       </c>
-      <c r="K39" s="63"/>
-      <c r="L39" s="63"/>
-      <c r="M39" s="63"/>
-      <c r="N39" s="63"/>
-      <c r="O39" s="63"/>
-      <c r="P39" s="63"/>
-      <c r="Q39" s="63"/>
-      <c r="R39" s="63"/>
-      <c r="S39" s="63"/>
-      <c r="T39" s="60"/>
-      <c r="U39" s="60"/>
-      <c r="V39" s="60"/>
-      <c r="W39" s="60"/>
-      <c r="X39" s="61"/>
-      <c r="Y39" s="41" t="s">
+      <c r="K39" s="48"/>
+      <c r="L39" s="48"/>
+      <c r="M39" s="48"/>
+      <c r="N39" s="48"/>
+      <c r="O39" s="48"/>
+      <c r="P39" s="48"/>
+      <c r="Q39" s="48"/>
+      <c r="R39" s="48"/>
+      <c r="S39" s="48"/>
+      <c r="T39" s="45"/>
+      <c r="U39" s="45"/>
+      <c r="V39" s="45"/>
+      <c r="W39" s="45"/>
+      <c r="X39" s="46"/>
+      <c r="Y39" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="Z39" s="42"/>
-      <c r="AA39" s="42"/>
-      <c r="AB39" s="42"/>
-      <c r="AC39" s="42"/>
-      <c r="AD39" s="42"/>
-      <c r="AE39" s="42"/>
-      <c r="AF39" s="42"/>
-      <c r="AG39" s="42"/>
-      <c r="AH39" s="42"/>
-      <c r="AI39" s="42"/>
-      <c r="AJ39" s="42"/>
-      <c r="AK39" s="42"/>
-      <c r="AL39" s="42"/>
-      <c r="AM39" s="42"/>
-      <c r="AN39" s="42"/>
-      <c r="AO39" s="42"/>
-      <c r="AP39" s="42"/>
-      <c r="AQ39" s="42"/>
-      <c r="AR39" s="42"/>
-      <c r="AS39" s="42"/>
-      <c r="AT39" s="42"/>
-      <c r="AU39" s="42"/>
-      <c r="AV39" s="42"/>
-      <c r="AW39" s="42"/>
-      <c r="AX39" s="42"/>
-      <c r="AY39" s="42"/>
-      <c r="AZ39" s="42"/>
-      <c r="BA39" s="42"/>
-      <c r="BB39" s="42"/>
-      <c r="BC39" s="42"/>
-      <c r="BD39" s="42"/>
-      <c r="BE39" s="42"/>
-      <c r="BF39" s="42"/>
-      <c r="BG39" s="42"/>
-      <c r="BH39" s="42"/>
-      <c r="BI39" s="42"/>
-      <c r="BJ39" s="42"/>
-      <c r="BK39" s="43"/>
+      <c r="Z39" s="31"/>
+      <c r="AA39" s="31"/>
+      <c r="AB39" s="31"/>
+      <c r="AC39" s="31"/>
+      <c r="AD39" s="31"/>
+      <c r="AE39" s="31"/>
+      <c r="AF39" s="31"/>
+      <c r="AG39" s="31"/>
+      <c r="AH39" s="31"/>
+      <c r="AI39" s="31"/>
+      <c r="AJ39" s="31"/>
+      <c r="AK39" s="31"/>
+      <c r="AL39" s="31"/>
+      <c r="AM39" s="31"/>
+      <c r="AN39" s="31"/>
+      <c r="AO39" s="31"/>
+      <c r="AP39" s="31"/>
+      <c r="AQ39" s="31"/>
+      <c r="AR39" s="31"/>
+      <c r="AS39" s="31"/>
+      <c r="AT39" s="31"/>
+      <c r="AU39" s="31"/>
+      <c r="AV39" s="31"/>
+      <c r="AW39" s="31"/>
+      <c r="AX39" s="31"/>
+      <c r="AY39" s="31"/>
+      <c r="AZ39" s="31"/>
+      <c r="BA39" s="31"/>
+      <c r="BB39" s="31"/>
+      <c r="BC39" s="31"/>
+      <c r="BD39" s="31"/>
+      <c r="BE39" s="31"/>
+      <c r="BF39" s="31"/>
+      <c r="BG39" s="31"/>
+      <c r="BH39" s="31"/>
+      <c r="BI39" s="31"/>
+      <c r="BJ39" s="31"/>
+      <c r="BK39" s="32"/>
       <c r="BL39" s="23"/>
       <c r="BM39" s="23"/>
       <c r="BN39" s="23"/>
@@ -37265,69 +37273,69 @@
       <c r="D40" s="23"/>
       <c r="E40" s="14"/>
       <c r="F40" s="14"/>
-      <c r="G40" s="53">
+      <c r="G40" s="50">
         <v>1</v>
       </c>
-      <c r="H40" s="42"/>
-      <c r="I40" s="43"/>
-      <c r="J40" s="53" t="s">
+      <c r="H40" s="31"/>
+      <c r="I40" s="32"/>
+      <c r="J40" s="50" t="s">
         <v>39</v>
       </c>
-      <c r="K40" s="42"/>
-      <c r="L40" s="42"/>
-      <c r="M40" s="42"/>
-      <c r="N40" s="42"/>
-      <c r="O40" s="42"/>
-      <c r="P40" s="42"/>
-      <c r="Q40" s="42"/>
-      <c r="R40" s="42"/>
-      <c r="S40" s="42"/>
-      <c r="T40" s="42"/>
-      <c r="U40" s="42"/>
-      <c r="V40" s="42"/>
-      <c r="W40" s="42"/>
-      <c r="X40" s="43"/>
-      <c r="Y40" s="54" t="s">
+      <c r="K40" s="31"/>
+      <c r="L40" s="31"/>
+      <c r="M40" s="31"/>
+      <c r="N40" s="31"/>
+      <c r="O40" s="31"/>
+      <c r="P40" s="31"/>
+      <c r="Q40" s="31"/>
+      <c r="R40" s="31"/>
+      <c r="S40" s="31"/>
+      <c r="T40" s="31"/>
+      <c r="U40" s="31"/>
+      <c r="V40" s="31"/>
+      <c r="W40" s="31"/>
+      <c r="X40" s="32"/>
+      <c r="Y40" s="49" t="s">
         <v>45</v>
       </c>
-      <c r="Z40" s="42"/>
-      <c r="AA40" s="42"/>
-      <c r="AB40" s="42"/>
-      <c r="AC40" s="42"/>
-      <c r="AD40" s="42"/>
-      <c r="AE40" s="42"/>
-      <c r="AF40" s="42"/>
-      <c r="AG40" s="42"/>
-      <c r="AH40" s="42"/>
-      <c r="AI40" s="42"/>
-      <c r="AJ40" s="42"/>
-      <c r="AK40" s="42"/>
-      <c r="AL40" s="42"/>
-      <c r="AM40" s="42"/>
-      <c r="AN40" s="42"/>
-      <c r="AO40" s="42"/>
-      <c r="AP40" s="42"/>
-      <c r="AQ40" s="42"/>
-      <c r="AR40" s="42"/>
-      <c r="AS40" s="42"/>
-      <c r="AT40" s="42"/>
-      <c r="AU40" s="42"/>
-      <c r="AV40" s="42"/>
-      <c r="AW40" s="42"/>
-      <c r="AX40" s="42"/>
-      <c r="AY40" s="42"/>
-      <c r="AZ40" s="42"/>
-      <c r="BA40" s="42"/>
-      <c r="BB40" s="42"/>
-      <c r="BC40" s="42"/>
-      <c r="BD40" s="42"/>
-      <c r="BE40" s="42"/>
-      <c r="BF40" s="42"/>
-      <c r="BG40" s="42"/>
-      <c r="BH40" s="42"/>
-      <c r="BI40" s="42"/>
-      <c r="BJ40" s="42"/>
-      <c r="BK40" s="43"/>
+      <c r="Z40" s="31"/>
+      <c r="AA40" s="31"/>
+      <c r="AB40" s="31"/>
+      <c r="AC40" s="31"/>
+      <c r="AD40" s="31"/>
+      <c r="AE40" s="31"/>
+      <c r="AF40" s="31"/>
+      <c r="AG40" s="31"/>
+      <c r="AH40" s="31"/>
+      <c r="AI40" s="31"/>
+      <c r="AJ40" s="31"/>
+      <c r="AK40" s="31"/>
+      <c r="AL40" s="31"/>
+      <c r="AM40" s="31"/>
+      <c r="AN40" s="31"/>
+      <c r="AO40" s="31"/>
+      <c r="AP40" s="31"/>
+      <c r="AQ40" s="31"/>
+      <c r="AR40" s="31"/>
+      <c r="AS40" s="31"/>
+      <c r="AT40" s="31"/>
+      <c r="AU40" s="31"/>
+      <c r="AV40" s="31"/>
+      <c r="AW40" s="31"/>
+      <c r="AX40" s="31"/>
+      <c r="AY40" s="31"/>
+      <c r="AZ40" s="31"/>
+      <c r="BA40" s="31"/>
+      <c r="BB40" s="31"/>
+      <c r="BC40" s="31"/>
+      <c r="BD40" s="31"/>
+      <c r="BE40" s="31"/>
+      <c r="BF40" s="31"/>
+      <c r="BG40" s="31"/>
+      <c r="BH40" s="31"/>
+      <c r="BI40" s="31"/>
+      <c r="BJ40" s="31"/>
+      <c r="BK40" s="32"/>
       <c r="BL40" s="23"/>
       <c r="BM40" s="23"/>
       <c r="BN40" s="23"/>
@@ -39323,65 +39331,65 @@
       <c r="D42" s="23"/>
       <c r="E42" s="14"/>
       <c r="F42" s="14"/>
-      <c r="G42" s="41" t="s">
+      <c r="G42" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="H42" s="42"/>
-      <c r="I42" s="42"/>
-      <c r="J42" s="42"/>
-      <c r="K42" s="42"/>
-      <c r="L42" s="42"/>
-      <c r="M42" s="42"/>
-      <c r="N42" s="42"/>
-      <c r="O42" s="42"/>
-      <c r="P42" s="42"/>
-      <c r="Q42" s="42"/>
-      <c r="R42" s="42"/>
-      <c r="S42" s="42"/>
-      <c r="T42" s="42"/>
-      <c r="U42" s="42"/>
-      <c r="V42" s="42"/>
-      <c r="W42" s="42"/>
-      <c r="X42" s="42"/>
-      <c r="Y42" s="42"/>
-      <c r="Z42" s="42"/>
-      <c r="AA42" s="42"/>
-      <c r="AB42" s="42"/>
-      <c r="AC42" s="42"/>
-      <c r="AD42" s="42"/>
-      <c r="AE42" s="42"/>
-      <c r="AF42" s="42"/>
-      <c r="AG42" s="42"/>
-      <c r="AH42" s="42"/>
-      <c r="AI42" s="42"/>
-      <c r="AJ42" s="42"/>
-      <c r="AK42" s="42"/>
-      <c r="AL42" s="42"/>
-      <c r="AM42" s="42"/>
-      <c r="AN42" s="42"/>
-      <c r="AO42" s="42"/>
-      <c r="AP42" s="42"/>
-      <c r="AQ42" s="42"/>
-      <c r="AR42" s="42"/>
-      <c r="AS42" s="42"/>
-      <c r="AT42" s="42"/>
-      <c r="AU42" s="42"/>
-      <c r="AV42" s="42"/>
-      <c r="AW42" s="42"/>
-      <c r="AX42" s="42"/>
-      <c r="AY42" s="42"/>
-      <c r="AZ42" s="42"/>
-      <c r="BA42" s="42"/>
-      <c r="BB42" s="42"/>
-      <c r="BC42" s="42"/>
-      <c r="BD42" s="42"/>
-      <c r="BE42" s="42"/>
-      <c r="BF42" s="42"/>
-      <c r="BG42" s="42"/>
-      <c r="BH42" s="42"/>
-      <c r="BI42" s="42"/>
-      <c r="BJ42" s="42"/>
-      <c r="BK42" s="43"/>
+      <c r="H42" s="31"/>
+      <c r="I42" s="31"/>
+      <c r="J42" s="31"/>
+      <c r="K42" s="31"/>
+      <c r="L42" s="31"/>
+      <c r="M42" s="31"/>
+      <c r="N42" s="31"/>
+      <c r="O42" s="31"/>
+      <c r="P42" s="31"/>
+      <c r="Q42" s="31"/>
+      <c r="R42" s="31"/>
+      <c r="S42" s="31"/>
+      <c r="T42" s="31"/>
+      <c r="U42" s="31"/>
+      <c r="V42" s="31"/>
+      <c r="W42" s="31"/>
+      <c r="X42" s="31"/>
+      <c r="Y42" s="31"/>
+      <c r="Z42" s="31"/>
+      <c r="AA42" s="31"/>
+      <c r="AB42" s="31"/>
+      <c r="AC42" s="31"/>
+      <c r="AD42" s="31"/>
+      <c r="AE42" s="31"/>
+      <c r="AF42" s="31"/>
+      <c r="AG42" s="31"/>
+      <c r="AH42" s="31"/>
+      <c r="AI42" s="31"/>
+      <c r="AJ42" s="31"/>
+      <c r="AK42" s="31"/>
+      <c r="AL42" s="31"/>
+      <c r="AM42" s="31"/>
+      <c r="AN42" s="31"/>
+      <c r="AO42" s="31"/>
+      <c r="AP42" s="31"/>
+      <c r="AQ42" s="31"/>
+      <c r="AR42" s="31"/>
+      <c r="AS42" s="31"/>
+      <c r="AT42" s="31"/>
+      <c r="AU42" s="31"/>
+      <c r="AV42" s="31"/>
+      <c r="AW42" s="31"/>
+      <c r="AX42" s="31"/>
+      <c r="AY42" s="31"/>
+      <c r="AZ42" s="31"/>
+      <c r="BA42" s="31"/>
+      <c r="BB42" s="31"/>
+      <c r="BC42" s="31"/>
+      <c r="BD42" s="31"/>
+      <c r="BE42" s="31"/>
+      <c r="BF42" s="31"/>
+      <c r="BG42" s="31"/>
+      <c r="BH42" s="31"/>
+      <c r="BI42" s="31"/>
+      <c r="BJ42" s="31"/>
+      <c r="BK42" s="32"/>
       <c r="BL42" s="23"/>
       <c r="BM42" s="23"/>
       <c r="BN42" s="23"/>
@@ -40351,65 +40359,65 @@
       <c r="D43" s="23"/>
       <c r="E43" s="14"/>
       <c r="F43" s="14"/>
-      <c r="G43" s="44" t="s">
+      <c r="G43" s="33" t="s">
         <v>43</v>
       </c>
-      <c r="H43" s="45"/>
-      <c r="I43" s="45"/>
-      <c r="J43" s="45"/>
-      <c r="K43" s="45"/>
-      <c r="L43" s="45"/>
-      <c r="M43" s="45"/>
-      <c r="N43" s="45"/>
-      <c r="O43" s="45"/>
-      <c r="P43" s="45"/>
-      <c r="Q43" s="45"/>
-      <c r="R43" s="45"/>
-      <c r="S43" s="45"/>
-      <c r="T43" s="45"/>
-      <c r="U43" s="45"/>
-      <c r="V43" s="45"/>
-      <c r="W43" s="45"/>
-      <c r="X43" s="45"/>
-      <c r="Y43" s="45"/>
-      <c r="Z43" s="45"/>
-      <c r="AA43" s="45"/>
-      <c r="AB43" s="45"/>
-      <c r="AC43" s="45"/>
-      <c r="AD43" s="45"/>
-      <c r="AE43" s="45"/>
-      <c r="AF43" s="45"/>
-      <c r="AG43" s="45"/>
-      <c r="AH43" s="45"/>
-      <c r="AI43" s="45"/>
-      <c r="AJ43" s="45"/>
-      <c r="AK43" s="45"/>
-      <c r="AL43" s="45"/>
-      <c r="AM43" s="45"/>
-      <c r="AN43" s="45"/>
-      <c r="AO43" s="45"/>
-      <c r="AP43" s="45"/>
-      <c r="AQ43" s="45"/>
-      <c r="AR43" s="45"/>
-      <c r="AS43" s="45"/>
-      <c r="AT43" s="45"/>
-      <c r="AU43" s="45"/>
-      <c r="AV43" s="45"/>
-      <c r="AW43" s="45"/>
-      <c r="AX43" s="45"/>
-      <c r="AY43" s="45"/>
-      <c r="AZ43" s="45"/>
-      <c r="BA43" s="45"/>
-      <c r="BB43" s="45"/>
-      <c r="BC43" s="45"/>
-      <c r="BD43" s="45"/>
-      <c r="BE43" s="45"/>
-      <c r="BF43" s="45"/>
-      <c r="BG43" s="45"/>
-      <c r="BH43" s="45"/>
-      <c r="BI43" s="45"/>
-      <c r="BJ43" s="45"/>
-      <c r="BK43" s="46"/>
+      <c r="H43" s="34"/>
+      <c r="I43" s="34"/>
+      <c r="J43" s="34"/>
+      <c r="K43" s="34"/>
+      <c r="L43" s="34"/>
+      <c r="M43" s="34"/>
+      <c r="N43" s="34"/>
+      <c r="O43" s="34"/>
+      <c r="P43" s="34"/>
+      <c r="Q43" s="34"/>
+      <c r="R43" s="34"/>
+      <c r="S43" s="34"/>
+      <c r="T43" s="34"/>
+      <c r="U43" s="34"/>
+      <c r="V43" s="34"/>
+      <c r="W43" s="34"/>
+      <c r="X43" s="34"/>
+      <c r="Y43" s="34"/>
+      <c r="Z43" s="34"/>
+      <c r="AA43" s="34"/>
+      <c r="AB43" s="34"/>
+      <c r="AC43" s="34"/>
+      <c r="AD43" s="34"/>
+      <c r="AE43" s="34"/>
+      <c r="AF43" s="34"/>
+      <c r="AG43" s="34"/>
+      <c r="AH43" s="34"/>
+      <c r="AI43" s="34"/>
+      <c r="AJ43" s="34"/>
+      <c r="AK43" s="34"/>
+      <c r="AL43" s="34"/>
+      <c r="AM43" s="34"/>
+      <c r="AN43" s="34"/>
+      <c r="AO43" s="34"/>
+      <c r="AP43" s="34"/>
+      <c r="AQ43" s="34"/>
+      <c r="AR43" s="34"/>
+      <c r="AS43" s="34"/>
+      <c r="AT43" s="34"/>
+      <c r="AU43" s="34"/>
+      <c r="AV43" s="34"/>
+      <c r="AW43" s="34"/>
+      <c r="AX43" s="34"/>
+      <c r="AY43" s="34"/>
+      <c r="AZ43" s="34"/>
+      <c r="BA43" s="34"/>
+      <c r="BB43" s="34"/>
+      <c r="BC43" s="34"/>
+      <c r="BD43" s="34"/>
+      <c r="BE43" s="34"/>
+      <c r="BF43" s="34"/>
+      <c r="BG43" s="34"/>
+      <c r="BH43" s="34"/>
+      <c r="BI43" s="34"/>
+      <c r="BJ43" s="34"/>
+      <c r="BK43" s="35"/>
       <c r="BL43" s="23"/>
       <c r="BM43" s="23"/>
       <c r="BN43" s="23"/>
@@ -41379,63 +41387,63 @@
       <c r="D44" s="23"/>
       <c r="E44" s="14"/>
       <c r="F44" s="14"/>
-      <c r="G44" s="47"/>
-      <c r="H44" s="48"/>
-      <c r="I44" s="48"/>
-      <c r="J44" s="48"/>
-      <c r="K44" s="48"/>
-      <c r="L44" s="48"/>
-      <c r="M44" s="48"/>
-      <c r="N44" s="48"/>
-      <c r="O44" s="48"/>
-      <c r="P44" s="48"/>
-      <c r="Q44" s="48"/>
-      <c r="R44" s="48"/>
-      <c r="S44" s="48"/>
-      <c r="T44" s="48"/>
-      <c r="U44" s="48"/>
-      <c r="V44" s="48"/>
-      <c r="W44" s="48"/>
-      <c r="X44" s="48"/>
-      <c r="Y44" s="48"/>
-      <c r="Z44" s="48"/>
-      <c r="AA44" s="48"/>
-      <c r="AB44" s="48"/>
-      <c r="AC44" s="48"/>
-      <c r="AD44" s="48"/>
-      <c r="AE44" s="48"/>
-      <c r="AF44" s="48"/>
-      <c r="AG44" s="48"/>
-      <c r="AH44" s="48"/>
-      <c r="AI44" s="48"/>
-      <c r="AJ44" s="48"/>
-      <c r="AK44" s="48"/>
-      <c r="AL44" s="48"/>
-      <c r="AM44" s="48"/>
-      <c r="AN44" s="48"/>
-      <c r="AO44" s="48"/>
-      <c r="AP44" s="48"/>
-      <c r="AQ44" s="48"/>
-      <c r="AR44" s="48"/>
-      <c r="AS44" s="48"/>
-      <c r="AT44" s="48"/>
-      <c r="AU44" s="48"/>
-      <c r="AV44" s="48"/>
-      <c r="AW44" s="48"/>
-      <c r="AX44" s="48"/>
-      <c r="AY44" s="48"/>
-      <c r="AZ44" s="48"/>
-      <c r="BA44" s="48"/>
-      <c r="BB44" s="48"/>
-      <c r="BC44" s="48"/>
-      <c r="BD44" s="48"/>
-      <c r="BE44" s="48"/>
-      <c r="BF44" s="48"/>
-      <c r="BG44" s="48"/>
-      <c r="BH44" s="48"/>
-      <c r="BI44" s="48"/>
-      <c r="BJ44" s="48"/>
-      <c r="BK44" s="49"/>
+      <c r="G44" s="36"/>
+      <c r="H44" s="37"/>
+      <c r="I44" s="37"/>
+      <c r="J44" s="37"/>
+      <c r="K44" s="37"/>
+      <c r="L44" s="37"/>
+      <c r="M44" s="37"/>
+      <c r="N44" s="37"/>
+      <c r="O44" s="37"/>
+      <c r="P44" s="37"/>
+      <c r="Q44" s="37"/>
+      <c r="R44" s="37"/>
+      <c r="S44" s="37"/>
+      <c r="T44" s="37"/>
+      <c r="U44" s="37"/>
+      <c r="V44" s="37"/>
+      <c r="W44" s="37"/>
+      <c r="X44" s="37"/>
+      <c r="Y44" s="37"/>
+      <c r="Z44" s="37"/>
+      <c r="AA44" s="37"/>
+      <c r="AB44" s="37"/>
+      <c r="AC44" s="37"/>
+      <c r="AD44" s="37"/>
+      <c r="AE44" s="37"/>
+      <c r="AF44" s="37"/>
+      <c r="AG44" s="37"/>
+      <c r="AH44" s="37"/>
+      <c r="AI44" s="37"/>
+      <c r="AJ44" s="37"/>
+      <c r="AK44" s="37"/>
+      <c r="AL44" s="37"/>
+      <c r="AM44" s="37"/>
+      <c r="AN44" s="37"/>
+      <c r="AO44" s="37"/>
+      <c r="AP44" s="37"/>
+      <c r="AQ44" s="37"/>
+      <c r="AR44" s="37"/>
+      <c r="AS44" s="37"/>
+      <c r="AT44" s="37"/>
+      <c r="AU44" s="37"/>
+      <c r="AV44" s="37"/>
+      <c r="AW44" s="37"/>
+      <c r="AX44" s="37"/>
+      <c r="AY44" s="37"/>
+      <c r="AZ44" s="37"/>
+      <c r="BA44" s="37"/>
+      <c r="BB44" s="37"/>
+      <c r="BC44" s="37"/>
+      <c r="BD44" s="37"/>
+      <c r="BE44" s="37"/>
+      <c r="BF44" s="37"/>
+      <c r="BG44" s="37"/>
+      <c r="BH44" s="37"/>
+      <c r="BI44" s="37"/>
+      <c r="BJ44" s="37"/>
+      <c r="BK44" s="38"/>
       <c r="BL44" s="23"/>
       <c r="BM44" s="23"/>
       <c r="BN44" s="23"/>
@@ -42405,63 +42413,63 @@
       <c r="D45" s="23"/>
       <c r="E45" s="14"/>
       <c r="F45" s="14"/>
-      <c r="G45" s="50"/>
-      <c r="H45" s="51"/>
-      <c r="I45" s="51"/>
-      <c r="J45" s="51"/>
-      <c r="K45" s="51"/>
-      <c r="L45" s="51"/>
-      <c r="M45" s="51"/>
-      <c r="N45" s="51"/>
-      <c r="O45" s="51"/>
-      <c r="P45" s="51"/>
-      <c r="Q45" s="51"/>
-      <c r="R45" s="51"/>
-      <c r="S45" s="51"/>
-      <c r="T45" s="51"/>
-      <c r="U45" s="51"/>
-      <c r="V45" s="51"/>
-      <c r="W45" s="51"/>
-      <c r="X45" s="51"/>
-      <c r="Y45" s="51"/>
-      <c r="Z45" s="51"/>
-      <c r="AA45" s="51"/>
-      <c r="AB45" s="51"/>
-      <c r="AC45" s="51"/>
-      <c r="AD45" s="51"/>
-      <c r="AE45" s="51"/>
-      <c r="AF45" s="51"/>
-      <c r="AG45" s="51"/>
-      <c r="AH45" s="51"/>
-      <c r="AI45" s="51"/>
-      <c r="AJ45" s="51"/>
-      <c r="AK45" s="51"/>
-      <c r="AL45" s="51"/>
-      <c r="AM45" s="51"/>
-      <c r="AN45" s="51"/>
-      <c r="AO45" s="51"/>
-      <c r="AP45" s="51"/>
-      <c r="AQ45" s="51"/>
-      <c r="AR45" s="51"/>
-      <c r="AS45" s="51"/>
-      <c r="AT45" s="51"/>
-      <c r="AU45" s="51"/>
-      <c r="AV45" s="51"/>
-      <c r="AW45" s="51"/>
-      <c r="AX45" s="51"/>
-      <c r="AY45" s="51"/>
-      <c r="AZ45" s="51"/>
-      <c r="BA45" s="51"/>
-      <c r="BB45" s="51"/>
-      <c r="BC45" s="51"/>
-      <c r="BD45" s="51"/>
-      <c r="BE45" s="51"/>
-      <c r="BF45" s="51"/>
-      <c r="BG45" s="51"/>
-      <c r="BH45" s="51"/>
-      <c r="BI45" s="51"/>
-      <c r="BJ45" s="51"/>
-      <c r="BK45" s="52"/>
+      <c r="G45" s="39"/>
+      <c r="H45" s="40"/>
+      <c r="I45" s="40"/>
+      <c r="J45" s="40"/>
+      <c r="K45" s="40"/>
+      <c r="L45" s="40"/>
+      <c r="M45" s="40"/>
+      <c r="N45" s="40"/>
+      <c r="O45" s="40"/>
+      <c r="P45" s="40"/>
+      <c r="Q45" s="40"/>
+      <c r="R45" s="40"/>
+      <c r="S45" s="40"/>
+      <c r="T45" s="40"/>
+      <c r="U45" s="40"/>
+      <c r="V45" s="40"/>
+      <c r="W45" s="40"/>
+      <c r="X45" s="40"/>
+      <c r="Y45" s="40"/>
+      <c r="Z45" s="40"/>
+      <c r="AA45" s="40"/>
+      <c r="AB45" s="40"/>
+      <c r="AC45" s="40"/>
+      <c r="AD45" s="40"/>
+      <c r="AE45" s="40"/>
+      <c r="AF45" s="40"/>
+      <c r="AG45" s="40"/>
+      <c r="AH45" s="40"/>
+      <c r="AI45" s="40"/>
+      <c r="AJ45" s="40"/>
+      <c r="AK45" s="40"/>
+      <c r="AL45" s="40"/>
+      <c r="AM45" s="40"/>
+      <c r="AN45" s="40"/>
+      <c r="AO45" s="40"/>
+      <c r="AP45" s="40"/>
+      <c r="AQ45" s="40"/>
+      <c r="AR45" s="40"/>
+      <c r="AS45" s="40"/>
+      <c r="AT45" s="40"/>
+      <c r="AU45" s="40"/>
+      <c r="AV45" s="40"/>
+      <c r="AW45" s="40"/>
+      <c r="AX45" s="40"/>
+      <c r="AY45" s="40"/>
+      <c r="AZ45" s="40"/>
+      <c r="BA45" s="40"/>
+      <c r="BB45" s="40"/>
+      <c r="BC45" s="40"/>
+      <c r="BD45" s="40"/>
+      <c r="BE45" s="40"/>
+      <c r="BF45" s="40"/>
+      <c r="BG45" s="40"/>
+      <c r="BH45" s="40"/>
+      <c r="BI45" s="40"/>
+      <c r="BJ45" s="40"/>
+      <c r="BK45" s="41"/>
       <c r="BL45" s="23"/>
       <c r="BM45" s="23"/>
       <c r="BN45" s="23"/>
@@ -51659,65 +51667,65 @@
       <c r="F54" s="14"/>
       <c r="G54" s="14"/>
       <c r="H54" s="14"/>
-      <c r="I54" s="41" t="s">
+      <c r="I54" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="J54" s="42"/>
-      <c r="K54" s="42"/>
-      <c r="L54" s="42"/>
-      <c r="M54" s="42"/>
-      <c r="N54" s="42"/>
-      <c r="O54" s="42"/>
-      <c r="P54" s="42"/>
-      <c r="Q54" s="42"/>
-      <c r="R54" s="42"/>
-      <c r="S54" s="42"/>
-      <c r="T54" s="42"/>
-      <c r="U54" s="42"/>
-      <c r="V54" s="42"/>
-      <c r="W54" s="42"/>
-      <c r="X54" s="42"/>
-      <c r="Y54" s="42"/>
-      <c r="Z54" s="42"/>
-      <c r="AA54" s="42"/>
-      <c r="AB54" s="42"/>
-      <c r="AC54" s="42"/>
-      <c r="AD54" s="42"/>
-      <c r="AE54" s="42"/>
-      <c r="AF54" s="42"/>
-      <c r="AG54" s="42"/>
-      <c r="AH54" s="42"/>
-      <c r="AI54" s="42"/>
-      <c r="AJ54" s="42"/>
-      <c r="AK54" s="42"/>
-      <c r="AL54" s="42"/>
-      <c r="AM54" s="42"/>
-      <c r="AN54" s="42"/>
-      <c r="AO54" s="42"/>
-      <c r="AP54" s="42"/>
-      <c r="AQ54" s="42"/>
-      <c r="AR54" s="42"/>
-      <c r="AS54" s="42"/>
-      <c r="AT54" s="42"/>
-      <c r="AU54" s="42"/>
-      <c r="AV54" s="42"/>
-      <c r="AW54" s="42"/>
-      <c r="AX54" s="42"/>
-      <c r="AY54" s="42"/>
-      <c r="AZ54" s="42"/>
-      <c r="BA54" s="42"/>
-      <c r="BB54" s="42"/>
-      <c r="BC54" s="42"/>
-      <c r="BD54" s="42"/>
-      <c r="BE54" s="42"/>
-      <c r="BF54" s="42"/>
-      <c r="BG54" s="42"/>
-      <c r="BH54" s="42"/>
-      <c r="BI54" s="42"/>
-      <c r="BJ54" s="42"/>
-      <c r="BK54" s="42"/>
-      <c r="BL54" s="42"/>
-      <c r="BM54" s="43"/>
+      <c r="J54" s="31"/>
+      <c r="K54" s="31"/>
+      <c r="L54" s="31"/>
+      <c r="M54" s="31"/>
+      <c r="N54" s="31"/>
+      <c r="O54" s="31"/>
+      <c r="P54" s="31"/>
+      <c r="Q54" s="31"/>
+      <c r="R54" s="31"/>
+      <c r="S54" s="31"/>
+      <c r="T54" s="31"/>
+      <c r="U54" s="31"/>
+      <c r="V54" s="31"/>
+      <c r="W54" s="31"/>
+      <c r="X54" s="31"/>
+      <c r="Y54" s="31"/>
+      <c r="Z54" s="31"/>
+      <c r="AA54" s="31"/>
+      <c r="AB54" s="31"/>
+      <c r="AC54" s="31"/>
+      <c r="AD54" s="31"/>
+      <c r="AE54" s="31"/>
+      <c r="AF54" s="31"/>
+      <c r="AG54" s="31"/>
+      <c r="AH54" s="31"/>
+      <c r="AI54" s="31"/>
+      <c r="AJ54" s="31"/>
+      <c r="AK54" s="31"/>
+      <c r="AL54" s="31"/>
+      <c r="AM54" s="31"/>
+      <c r="AN54" s="31"/>
+      <c r="AO54" s="31"/>
+      <c r="AP54" s="31"/>
+      <c r="AQ54" s="31"/>
+      <c r="AR54" s="31"/>
+      <c r="AS54" s="31"/>
+      <c r="AT54" s="31"/>
+      <c r="AU54" s="31"/>
+      <c r="AV54" s="31"/>
+      <c r="AW54" s="31"/>
+      <c r="AX54" s="31"/>
+      <c r="AY54" s="31"/>
+      <c r="AZ54" s="31"/>
+      <c r="BA54" s="31"/>
+      <c r="BB54" s="31"/>
+      <c r="BC54" s="31"/>
+      <c r="BD54" s="31"/>
+      <c r="BE54" s="31"/>
+      <c r="BF54" s="31"/>
+      <c r="BG54" s="31"/>
+      <c r="BH54" s="31"/>
+      <c r="BI54" s="31"/>
+      <c r="BJ54" s="31"/>
+      <c r="BK54" s="31"/>
+      <c r="BL54" s="31"/>
+      <c r="BM54" s="32"/>
       <c r="BN54" s="12"/>
       <c r="BO54" s="12"/>
       <c r="BP54" s="12"/>
@@ -52687,65 +52695,65 @@
       <c r="F55" s="14"/>
       <c r="G55" s="14"/>
       <c r="H55" s="14"/>
-      <c r="I55" s="44" t="s">
+      <c r="I55" s="33" t="s">
         <v>60</v>
       </c>
-      <c r="J55" s="45"/>
-      <c r="K55" s="45"/>
-      <c r="L55" s="45"/>
-      <c r="M55" s="45"/>
-      <c r="N55" s="45"/>
-      <c r="O55" s="45"/>
-      <c r="P55" s="45"/>
-      <c r="Q55" s="45"/>
-      <c r="R55" s="45"/>
-      <c r="S55" s="45"/>
-      <c r="T55" s="45"/>
-      <c r="U55" s="45"/>
-      <c r="V55" s="45"/>
-      <c r="W55" s="45"/>
-      <c r="X55" s="45"/>
-      <c r="Y55" s="45"/>
-      <c r="Z55" s="45"/>
-      <c r="AA55" s="45"/>
-      <c r="AB55" s="45"/>
-      <c r="AC55" s="45"/>
-      <c r="AD55" s="45"/>
-      <c r="AE55" s="45"/>
-      <c r="AF55" s="45"/>
-      <c r="AG55" s="45"/>
-      <c r="AH55" s="45"/>
-      <c r="AI55" s="45"/>
-      <c r="AJ55" s="45"/>
-      <c r="AK55" s="45"/>
-      <c r="AL55" s="45"/>
-      <c r="AM55" s="45"/>
-      <c r="AN55" s="45"/>
-      <c r="AO55" s="45"/>
-      <c r="AP55" s="45"/>
-      <c r="AQ55" s="45"/>
-      <c r="AR55" s="45"/>
-      <c r="AS55" s="45"/>
-      <c r="AT55" s="45"/>
-      <c r="AU55" s="45"/>
-      <c r="AV55" s="45"/>
-      <c r="AW55" s="45"/>
-      <c r="AX55" s="45"/>
-      <c r="AY55" s="45"/>
-      <c r="AZ55" s="45"/>
-      <c r="BA55" s="45"/>
-      <c r="BB55" s="45"/>
-      <c r="BC55" s="45"/>
-      <c r="BD55" s="45"/>
-      <c r="BE55" s="45"/>
-      <c r="BF55" s="45"/>
-      <c r="BG55" s="45"/>
-      <c r="BH55" s="45"/>
-      <c r="BI55" s="45"/>
-      <c r="BJ55" s="45"/>
-      <c r="BK55" s="45"/>
-      <c r="BL55" s="45"/>
-      <c r="BM55" s="46"/>
+      <c r="J55" s="34"/>
+      <c r="K55" s="34"/>
+      <c r="L55" s="34"/>
+      <c r="M55" s="34"/>
+      <c r="N55" s="34"/>
+      <c r="O55" s="34"/>
+      <c r="P55" s="34"/>
+      <c r="Q55" s="34"/>
+      <c r="R55" s="34"/>
+      <c r="S55" s="34"/>
+      <c r="T55" s="34"/>
+      <c r="U55" s="34"/>
+      <c r="V55" s="34"/>
+      <c r="W55" s="34"/>
+      <c r="X55" s="34"/>
+      <c r="Y55" s="34"/>
+      <c r="Z55" s="34"/>
+      <c r="AA55" s="34"/>
+      <c r="AB55" s="34"/>
+      <c r="AC55" s="34"/>
+      <c r="AD55" s="34"/>
+      <c r="AE55" s="34"/>
+      <c r="AF55" s="34"/>
+      <c r="AG55" s="34"/>
+      <c r="AH55" s="34"/>
+      <c r="AI55" s="34"/>
+      <c r="AJ55" s="34"/>
+      <c r="AK55" s="34"/>
+      <c r="AL55" s="34"/>
+      <c r="AM55" s="34"/>
+      <c r="AN55" s="34"/>
+      <c r="AO55" s="34"/>
+      <c r="AP55" s="34"/>
+      <c r="AQ55" s="34"/>
+      <c r="AR55" s="34"/>
+      <c r="AS55" s="34"/>
+      <c r="AT55" s="34"/>
+      <c r="AU55" s="34"/>
+      <c r="AV55" s="34"/>
+      <c r="AW55" s="34"/>
+      <c r="AX55" s="34"/>
+      <c r="AY55" s="34"/>
+      <c r="AZ55" s="34"/>
+      <c r="BA55" s="34"/>
+      <c r="BB55" s="34"/>
+      <c r="BC55" s="34"/>
+      <c r="BD55" s="34"/>
+      <c r="BE55" s="34"/>
+      <c r="BF55" s="34"/>
+      <c r="BG55" s="34"/>
+      <c r="BH55" s="34"/>
+      <c r="BI55" s="34"/>
+      <c r="BJ55" s="34"/>
+      <c r="BK55" s="34"/>
+      <c r="BL55" s="34"/>
+      <c r="BM55" s="35"/>
       <c r="BN55" s="12"/>
       <c r="BO55" s="12"/>
       <c r="BP55" s="12"/>
@@ -53715,63 +53723,63 @@
       <c r="F56" s="14"/>
       <c r="G56" s="14"/>
       <c r="H56" s="14"/>
-      <c r="I56" s="47"/>
-      <c r="J56" s="48"/>
-      <c r="K56" s="48"/>
-      <c r="L56" s="48"/>
-      <c r="M56" s="48"/>
-      <c r="N56" s="48"/>
-      <c r="O56" s="48"/>
-      <c r="P56" s="48"/>
-      <c r="Q56" s="48"/>
-      <c r="R56" s="48"/>
-      <c r="S56" s="48"/>
-      <c r="T56" s="48"/>
-      <c r="U56" s="48"/>
-      <c r="V56" s="48"/>
-      <c r="W56" s="48"/>
-      <c r="X56" s="48"/>
-      <c r="Y56" s="48"/>
-      <c r="Z56" s="48"/>
-      <c r="AA56" s="48"/>
-      <c r="AB56" s="48"/>
-      <c r="AC56" s="48"/>
-      <c r="AD56" s="48"/>
-      <c r="AE56" s="48"/>
-      <c r="AF56" s="48"/>
-      <c r="AG56" s="48"/>
-      <c r="AH56" s="48"/>
-      <c r="AI56" s="48"/>
-      <c r="AJ56" s="48"/>
-      <c r="AK56" s="48"/>
-      <c r="AL56" s="48"/>
-      <c r="AM56" s="48"/>
-      <c r="AN56" s="48"/>
-      <c r="AO56" s="48"/>
-      <c r="AP56" s="48"/>
-      <c r="AQ56" s="48"/>
-      <c r="AR56" s="48"/>
-      <c r="AS56" s="48"/>
-      <c r="AT56" s="48"/>
-      <c r="AU56" s="48"/>
-      <c r="AV56" s="48"/>
-      <c r="AW56" s="48"/>
-      <c r="AX56" s="48"/>
-      <c r="AY56" s="48"/>
-      <c r="AZ56" s="48"/>
-      <c r="BA56" s="48"/>
-      <c r="BB56" s="48"/>
-      <c r="BC56" s="48"/>
-      <c r="BD56" s="48"/>
-      <c r="BE56" s="48"/>
-      <c r="BF56" s="48"/>
-      <c r="BG56" s="48"/>
-      <c r="BH56" s="48"/>
-      <c r="BI56" s="48"/>
-      <c r="BJ56" s="48"/>
-      <c r="BK56" s="48"/>
-      <c r="BL56" s="48"/>
-      <c r="BM56" s="49"/>
+      <c r="I56" s="36"/>
+      <c r="J56" s="37"/>
+      <c r="K56" s="37"/>
+      <c r="L56" s="37"/>
+      <c r="M56" s="37"/>
+      <c r="N56" s="37"/>
+      <c r="O56" s="37"/>
+      <c r="P56" s="37"/>
+      <c r="Q56" s="37"/>
+      <c r="R56" s="37"/>
+      <c r="S56" s="37"/>
+      <c r="T56" s="37"/>
+      <c r="U56" s="37"/>
+      <c r="V56" s="37"/>
+      <c r="W56" s="37"/>
+      <c r="X56" s="37"/>
+      <c r="Y56" s="37"/>
+      <c r="Z56" s="37"/>
+      <c r="AA56" s="37"/>
+      <c r="AB56" s="37"/>
+      <c r="AC56" s="37"/>
+      <c r="AD56" s="37"/>
+      <c r="AE56" s="37"/>
+      <c r="AF56" s="37"/>
+      <c r="AG56" s="37"/>
+      <c r="AH56" s="37"/>
+      <c r="AI56" s="37"/>
+      <c r="AJ56" s="37"/>
+      <c r="AK56" s="37"/>
+      <c r="AL56" s="37"/>
+      <c r="AM56" s="37"/>
+      <c r="AN56" s="37"/>
+      <c r="AO56" s="37"/>
+      <c r="AP56" s="37"/>
+      <c r="AQ56" s="37"/>
+      <c r="AR56" s="37"/>
+      <c r="AS56" s="37"/>
+      <c r="AT56" s="37"/>
+      <c r="AU56" s="37"/>
+      <c r="AV56" s="37"/>
+      <c r="AW56" s="37"/>
+      <c r="AX56" s="37"/>
+      <c r="AY56" s="37"/>
+      <c r="AZ56" s="37"/>
+      <c r="BA56" s="37"/>
+      <c r="BB56" s="37"/>
+      <c r="BC56" s="37"/>
+      <c r="BD56" s="37"/>
+      <c r="BE56" s="37"/>
+      <c r="BF56" s="37"/>
+      <c r="BG56" s="37"/>
+      <c r="BH56" s="37"/>
+      <c r="BI56" s="37"/>
+      <c r="BJ56" s="37"/>
+      <c r="BK56" s="37"/>
+      <c r="BL56" s="37"/>
+      <c r="BM56" s="38"/>
       <c r="BN56" s="12"/>
       <c r="BO56" s="12"/>
       <c r="BP56" s="12"/>
@@ -54741,63 +54749,63 @@
       <c r="F57" s="14"/>
       <c r="G57" s="14"/>
       <c r="H57" s="14"/>
-      <c r="I57" s="50"/>
-      <c r="J57" s="51"/>
-      <c r="K57" s="51"/>
-      <c r="L57" s="51"/>
-      <c r="M57" s="51"/>
-      <c r="N57" s="51"/>
-      <c r="O57" s="51"/>
-      <c r="P57" s="51"/>
-      <c r="Q57" s="51"/>
-      <c r="R57" s="51"/>
-      <c r="S57" s="51"/>
-      <c r="T57" s="51"/>
-      <c r="U57" s="51"/>
-      <c r="V57" s="51"/>
-      <c r="W57" s="51"/>
-      <c r="X57" s="51"/>
-      <c r="Y57" s="51"/>
-      <c r="Z57" s="51"/>
-      <c r="AA57" s="51"/>
-      <c r="AB57" s="51"/>
-      <c r="AC57" s="51"/>
-      <c r="AD57" s="51"/>
-      <c r="AE57" s="51"/>
-      <c r="AF57" s="51"/>
-      <c r="AG57" s="51"/>
-      <c r="AH57" s="51"/>
-      <c r="AI57" s="51"/>
-      <c r="AJ57" s="51"/>
-      <c r="AK57" s="51"/>
-      <c r="AL57" s="51"/>
-      <c r="AM57" s="51"/>
-      <c r="AN57" s="51"/>
-      <c r="AO57" s="51"/>
-      <c r="AP57" s="51"/>
-      <c r="AQ57" s="51"/>
-      <c r="AR57" s="51"/>
-      <c r="AS57" s="51"/>
-      <c r="AT57" s="51"/>
-      <c r="AU57" s="51"/>
-      <c r="AV57" s="51"/>
-      <c r="AW57" s="51"/>
-      <c r="AX57" s="51"/>
-      <c r="AY57" s="51"/>
-      <c r="AZ57" s="51"/>
-      <c r="BA57" s="51"/>
-      <c r="BB57" s="51"/>
-      <c r="BC57" s="51"/>
-      <c r="BD57" s="51"/>
-      <c r="BE57" s="51"/>
-      <c r="BF57" s="51"/>
-      <c r="BG57" s="51"/>
-      <c r="BH57" s="51"/>
-      <c r="BI57" s="51"/>
-      <c r="BJ57" s="51"/>
-      <c r="BK57" s="51"/>
-      <c r="BL57" s="51"/>
-      <c r="BM57" s="52"/>
+      <c r="I57" s="39"/>
+      <c r="J57" s="40"/>
+      <c r="K57" s="40"/>
+      <c r="L57" s="40"/>
+      <c r="M57" s="40"/>
+      <c r="N57" s="40"/>
+      <c r="O57" s="40"/>
+      <c r="P57" s="40"/>
+      <c r="Q57" s="40"/>
+      <c r="R57" s="40"/>
+      <c r="S57" s="40"/>
+      <c r="T57" s="40"/>
+      <c r="U57" s="40"/>
+      <c r="V57" s="40"/>
+      <c r="W57" s="40"/>
+      <c r="X57" s="40"/>
+      <c r="Y57" s="40"/>
+      <c r="Z57" s="40"/>
+      <c r="AA57" s="40"/>
+      <c r="AB57" s="40"/>
+      <c r="AC57" s="40"/>
+      <c r="AD57" s="40"/>
+      <c r="AE57" s="40"/>
+      <c r="AF57" s="40"/>
+      <c r="AG57" s="40"/>
+      <c r="AH57" s="40"/>
+      <c r="AI57" s="40"/>
+      <c r="AJ57" s="40"/>
+      <c r="AK57" s="40"/>
+      <c r="AL57" s="40"/>
+      <c r="AM57" s="40"/>
+      <c r="AN57" s="40"/>
+      <c r="AO57" s="40"/>
+      <c r="AP57" s="40"/>
+      <c r="AQ57" s="40"/>
+      <c r="AR57" s="40"/>
+      <c r="AS57" s="40"/>
+      <c r="AT57" s="40"/>
+      <c r="AU57" s="40"/>
+      <c r="AV57" s="40"/>
+      <c r="AW57" s="40"/>
+      <c r="AX57" s="40"/>
+      <c r="AY57" s="40"/>
+      <c r="AZ57" s="40"/>
+      <c r="BA57" s="40"/>
+      <c r="BB57" s="40"/>
+      <c r="BC57" s="40"/>
+      <c r="BD57" s="40"/>
+      <c r="BE57" s="40"/>
+      <c r="BF57" s="40"/>
+      <c r="BG57" s="40"/>
+      <c r="BH57" s="40"/>
+      <c r="BI57" s="40"/>
+      <c r="BJ57" s="40"/>
+      <c r="BK57" s="40"/>
+      <c r="BL57" s="40"/>
+      <c r="BM57" s="41"/>
       <c r="BN57" s="12"/>
       <c r="BO57" s="12"/>
       <c r="BP57" s="12"/>
@@ -60894,33 +60902,33 @@
     </row>
   </sheetData>
   <mergeCells count="74">
-    <mergeCell ref="G42:BK42"/>
-    <mergeCell ref="G43:BK45"/>
-    <mergeCell ref="I54:BM54"/>
-    <mergeCell ref="I55:BM57"/>
-    <mergeCell ref="AS17:CI17"/>
-    <mergeCell ref="Y5:AR5"/>
-    <mergeCell ref="AS5:CI5"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="J22:X22"/>
-    <mergeCell ref="Y22:BK22"/>
-    <mergeCell ref="Y23:BK23"/>
-    <mergeCell ref="Y28:BK28"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="J23:X23"/>
-    <mergeCell ref="G27:I27"/>
-    <mergeCell ref="J27:X27"/>
-    <mergeCell ref="Y27:BK27"/>
-    <mergeCell ref="B33:D33"/>
-    <mergeCell ref="E33:X33"/>
-    <mergeCell ref="Y34:AH34"/>
-    <mergeCell ref="B34:D34"/>
-    <mergeCell ref="AI34:AR34"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="E18:X18"/>
-    <mergeCell ref="Y18:AH18"/>
-    <mergeCell ref="AI18:AR18"/>
-    <mergeCell ref="AS18:CI18"/>
+    <mergeCell ref="Y40:BK40"/>
+    <mergeCell ref="AS33:CI33"/>
+    <mergeCell ref="E34:X34"/>
+    <mergeCell ref="AS34:CI34"/>
+    <mergeCell ref="Y33:AH33"/>
+    <mergeCell ref="AI33:AR33"/>
+    <mergeCell ref="G39:I39"/>
+    <mergeCell ref="J39:X39"/>
+    <mergeCell ref="Y39:BK39"/>
+    <mergeCell ref="CB1:CI1"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="H2:V2"/>
+    <mergeCell ref="W2:BK2"/>
+    <mergeCell ref="BL2:BO2"/>
+    <mergeCell ref="BP2:BW2"/>
+    <mergeCell ref="BX2:CA2"/>
+    <mergeCell ref="CB2:CI2"/>
+    <mergeCell ref="B1:G1"/>
+    <mergeCell ref="H1:V1"/>
+    <mergeCell ref="W1:BK1"/>
+    <mergeCell ref="BL1:BO1"/>
+    <mergeCell ref="BP1:BW1"/>
+    <mergeCell ref="Y4:AR4"/>
+    <mergeCell ref="AS4:CI4"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="E5:X5"/>
+    <mergeCell ref="E7:X7"/>
     <mergeCell ref="B17:D17"/>
     <mergeCell ref="E17:X17"/>
     <mergeCell ref="Y17:AH17"/>
@@ -60937,37 +60945,37 @@
     <mergeCell ref="AS7:CI7"/>
     <mergeCell ref="B4:D4"/>
     <mergeCell ref="E4:X4"/>
-    <mergeCell ref="Y4:AR4"/>
-    <mergeCell ref="AS4:CI4"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="E5:X5"/>
-    <mergeCell ref="E7:X7"/>
-    <mergeCell ref="CB1:CI1"/>
-    <mergeCell ref="B2:G2"/>
-    <mergeCell ref="H2:V2"/>
-    <mergeCell ref="W2:BK2"/>
-    <mergeCell ref="BL2:BO2"/>
-    <mergeCell ref="BP2:BW2"/>
-    <mergeCell ref="BX2:CA2"/>
-    <mergeCell ref="CB2:CI2"/>
-    <mergeCell ref="B1:G1"/>
-    <mergeCell ref="H1:V1"/>
-    <mergeCell ref="W1:BK1"/>
-    <mergeCell ref="BL1:BO1"/>
-    <mergeCell ref="BP1:BW1"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="E18:X18"/>
+    <mergeCell ref="Y18:AH18"/>
+    <mergeCell ref="AI18:AR18"/>
+    <mergeCell ref="AS18:CI18"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="E33:X33"/>
+    <mergeCell ref="Y34:AH34"/>
+    <mergeCell ref="B34:D34"/>
+    <mergeCell ref="AI34:AR34"/>
+    <mergeCell ref="Y5:AR5"/>
+    <mergeCell ref="AS5:CI5"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="J22:X22"/>
+    <mergeCell ref="Y22:BK22"/>
+    <mergeCell ref="G42:BK42"/>
+    <mergeCell ref="G43:BK45"/>
+    <mergeCell ref="I54:BM54"/>
+    <mergeCell ref="I55:BM57"/>
+    <mergeCell ref="AS17:CI17"/>
+    <mergeCell ref="Y23:BK23"/>
+    <mergeCell ref="Y28:BK28"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="J23:X23"/>
+    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="J27:X27"/>
+    <mergeCell ref="Y27:BK27"/>
     <mergeCell ref="G28:I28"/>
     <mergeCell ref="J28:X28"/>
     <mergeCell ref="G40:I40"/>
     <mergeCell ref="J40:X40"/>
-    <mergeCell ref="Y40:BK40"/>
-    <mergeCell ref="AS33:CI33"/>
-    <mergeCell ref="E34:X34"/>
-    <mergeCell ref="AS34:CI34"/>
-    <mergeCell ref="Y33:AH33"/>
-    <mergeCell ref="AI33:AR33"/>
-    <mergeCell ref="G39:I39"/>
-    <mergeCell ref="J39:X39"/>
-    <mergeCell ref="Y39:BK39"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <printOptions horizontalCentered="1"/>
